--- a/CFRP2本_lap=30/thickness_l30_g2.0.xlsx
+++ b/CFRP2本_lap=30/thickness_l30_g2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/CFRP2本_lap=30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C59924-5CCF-D242-94DD-790144A41412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CF4C73-B6F0-2645-B405-2F46BEB6ED67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
@@ -12289,26 +12290,16 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.9853582351792806E-2"/>
-          <c:y val="0.11045821824627942"/>
-          <c:w val="0.91598327585084927"/>
-          <c:h val="0.83928453642247602"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]まとめ!$C$1</c:f>
+              <c:f>[2]まとめ!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12319,66 +12310,36 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]まとめ!$B$2:$B$9</c:f>
+              <c:f>[2]まとめ!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]まとめ!$C$2:$C$9</c:f>
+              <c:f>[2]まとめ!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14.379659999999999</c:v>
+                  <c:v>12.868880000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.56026</c:v>
+                  <c:v>20.965599999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.606819999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.322320000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.610300000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.87806</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.282220000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.462400000000001</c:v>
+                  <c:v>30.8962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12386,16 +12347,103 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CE53-2147-A5FA-A9F35859100D}"/>
+              <c16:uniqueId val="{00000006-FD68-6C41-8CAD-A722816DC3B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>まとめ!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tensile_strength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>まとめ!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>まとめ!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.69914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.596800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.29814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.216080000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.470300000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.908919999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.895520000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FD68-6C41-8CAD-A722816DC3B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>まとめ!$C$1</c:f>
+              <c:f>[1]まとめ!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12430,7 +12478,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>まとめ!$B$2:$B$9</c:f>
+              <c:f>[1]まとめ!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12463,33 +12511,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>まとめ!$C$2:$C$9</c:f>
+              <c:f>[1]まとめ!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>17.385000000000002</c:v>
+                  <c:v>14.379659999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.69914</c:v>
+                  <c:v>17.56026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.596800000000002</c:v>
+                  <c:v>18.606819999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.29814</c:v>
+                  <c:v>18.322320000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.216080000000002</c:v>
+                  <c:v>14.610300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.470300000000002</c:v>
+                  <c:v>14.87806</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.908919999999998</c:v>
+                  <c:v>15.282220000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.895520000000001</c:v>
+                  <c:v>15.462400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12497,7 +12545,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CE53-2147-A5FA-A9F35859100D}"/>
+              <c16:uniqueId val="{00000005-FD68-6C41-8CAD-A722816DC3B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12509,30 +12557,69 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1098321568"/>
-        <c:axId val="1318456064"/>
+        <c:axId val="913343792"/>
+        <c:axId val="914055120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1098321568"/>
+        <c:axId val="913343792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>CFRP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>の</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>辺の長さ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[mm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12570,15 +12657,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1318456064"/>
+        <c:crossAx val="914055120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1318456064"/>
+        <c:axId val="914055120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12596,6 +12682,45 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>引張強さ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t> [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12633,10 +12758,9 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1098321568"/>
+        <c:crossAx val="913343792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:minorUnit val="2"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -18305,23 +18429,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="グラフ 5">
+        <xdr:cNvPr id="7" name="グラフ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0AAEAC-EC7E-1646-AB4F-BCDE1B37AE10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63246AFB-2D29-E84A-BB13-243912CA8FF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19223,6 +19347,59 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="C1_len120_th0.1"/>
+      <sheetName val="C1_len120_th0.5"/>
+      <sheetName val="C1_len120_th1.0"/>
+      <sheetName val="C1_len120_th2.0"/>
+      <sheetName val="まとめ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>tensile_strength</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>0.1</v>
+          </cell>
+          <cell r="C2">
+            <v>12.868880000000001</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.5</v>
+          </cell>
+          <cell r="C3">
+            <v>20.965599999999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4">
+            <v>30.8962</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -19586,8 +19763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/CFRP2本_lap=30/thickness_l30_g2.0.xlsx
+++ b/CFRP2本_lap=30/thickness_l30_g2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/CFRP2本_lap=30/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay0423\Documents\ansys-management\CFRP2本_lap=30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CF4C73-B6F0-2645-B405-2F46BEB6ED67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203AD6B8-4585-420D-986E-A39377D6C8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="1185" windowWidth="21555" windowHeight="14730" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
   <externalReferences>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
@@ -124,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11463,490 +11464,6 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>まとめ!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tensile_strength</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>まとめ!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>まとめ!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>17.385000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.69914</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.596800000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.29814</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.216080000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.470300000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.908919999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.895520000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A42C-7A47-8151-C3D21B87ECA5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]まとめ!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tensile_strength</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]まとめ!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]まとめ!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>14.379659999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.56026</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.606819999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.322320000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.610300000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.87806</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.282220000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.462400000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A42C-7A47-8151-C3D21B87ECA5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="913343792"/>
-        <c:axId val="914055120"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="913343792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>CFRP</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>の</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>1</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>辺の長さ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>[mm]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="914055120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="914055120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>引張強さ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t> [MPa]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="913343792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -12226,548 +11743,6 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]まとめ!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tensile_strength</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[2]まとめ!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[2]まとめ!$C$2:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>12.868880000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.965599999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.8962</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-FD68-6C41-8CAD-A722816DC3B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>まとめ!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tensile_strength</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>まとめ!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>まとめ!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>17.385000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.69914</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.596800000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.29814</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.216080000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.470300000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.908919999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.895520000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FD68-6C41-8CAD-A722816DC3B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]まとめ!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tensile_strength</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]まとめ!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]まとめ!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>14.379659999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.56026</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.606819999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.322320000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.610300000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.87806</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.282220000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.462400000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FD68-6C41-8CAD-A722816DC3B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="913343792"/>
-        <c:axId val="914055120"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="913343792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>CFRP</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>の</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>1</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>辺の長さ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>[mm]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="914055120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="914055120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>引張強さ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t> [MPa]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="913343792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -18322,13 +17297,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18348,44 +17323,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54AE328D-52FE-8C48-B982-72E56D8C90ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18421,45 +17358,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="グラフ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63246AFB-2D29-E84A-BB13-243912CA8FF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19248,6 +18147,32 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="まとめ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="まとめ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="C2_l10_th0.1_g2.0"/>
       <sheetName val="C2_l10_th0.25_g2.0"/>
@@ -19342,59 +18267,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="10" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="C1_len120_th0.1"/>
-      <sheetName val="C1_len120_th0.5"/>
-      <sheetName val="C1_len120_th1.0"/>
-      <sheetName val="C1_len120_th2.0"/>
-      <sheetName val="まとめ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>tensile_strength</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>0.1</v>
-          </cell>
-          <cell r="C2">
-            <v>12.868880000000001</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.5</v>
-          </cell>
-          <cell r="C3">
-            <v>20.965599999999998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>1</v>
-          </cell>
-          <cell r="C4">
-            <v>30.8962</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -19689,9 +18561,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19717,7 +18589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -19751,7 +18623,7 @@
       <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19764,15 +18636,15 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -19784,7 +18656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -19798,7 +18670,7 @@
         <v>2187.6433333333339</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -19812,7 +18684,7 @@
         <v>2507.8285575757568</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -19826,7 +18698,7 @@
         <v>2744.4213333333341</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -19840,7 +18712,7 @@
         <v>3110.5579151515099</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -19854,7 +18726,7 @@
         <v>3579.788</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -19868,7 +18740,7 @@
         <v>4083.25115151515</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -19882,7 +18754,7 @@
         <v>4624.2594666666664</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -19909,9 +18781,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -19931,7 +18803,7 @@
         <v>17.385000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -19951,7 +18823,7 @@
         <v>2187.6433333333339</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -19965,7 +18837,7 @@
         <v>1.0938220000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -19979,7 +18851,7 @@
         <v>1.6407320000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -19993,7 +18865,7 @@
         <v>2.18764</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -20007,7 +18879,7 @@
         <v>2.7345600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -20021,7 +18893,7 @@
         <v>3.28146</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -20035,7 +18907,7 @@
         <v>3.8283800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -20049,7 +18921,7 @@
         <v>4.3752800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -20063,7 +18935,7 @@
         <v>4.9222000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -20077,7 +18949,7 @@
         <v>5.4691000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -20091,7 +18963,7 @@
         <v>6.0159799999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -20105,7 +18977,7 @@
         <v>6.5627999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -20119,7 +18991,7 @@
         <v>7.1095600000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -20133,7 +19005,7 @@
         <v>7.6560400000000008</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -20147,7 +19019,7 @@
         <v>8.20214</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -20161,7 +19033,7 @@
         <v>8.7478400000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -20175,7 +19047,7 @@
         <v>9.2918400000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -20189,7 +19061,7 @@
         <v>9.8187599999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -20203,7 +19075,7 @@
         <v>10.325799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -20217,7 +19089,7 @@
         <v>10.81326</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -20231,7 +19103,7 @@
         <v>11.315440000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -20245,7 +19117,7 @@
         <v>11.75792</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -20259,7 +19131,7 @@
         <v>10.72528</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -20273,7 +19145,7 @@
         <v>8.8707799999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -20287,7 +19159,7 @@
         <v>9.0945599999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -20301,7 +19173,7 @@
         <v>9.4528200000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -20315,7 +19187,7 @@
         <v>9.8129399999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -20329,7 +19201,7 @@
         <v>10.17318</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -20343,7 +19215,7 @@
         <v>10.535819999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -20357,7 +19229,7 @@
         <v>10.89866</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -20371,7 +19243,7 @@
         <v>11.261139999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -20385,7 +19257,7 @@
         <v>11.62382</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -20399,7 +19271,7 @@
         <v>11.9864</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -20413,7 +19285,7 @@
         <v>12.347580000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -20427,7 +19299,7 @@
         <v>12.708679999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -20441,7 +19313,7 @@
         <v>13.070740000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -20455,7 +19327,7 @@
         <v>13.4331</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -20469,7 +19341,7 @@
         <v>13.79528</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -20483,7 +19355,7 @@
         <v>14.15748</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -20497,7 +19369,7 @@
         <v>14.51984</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -20511,7 +19383,7 @@
         <v>14.8825</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -20525,7 +19397,7 @@
         <v>15.245240000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -20539,7 +19411,7 @@
         <v>15.608079999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -20553,7 +19425,7 @@
         <v>15.97082</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -20567,7 +19439,7 @@
         <v>16.333200000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -20581,7 +19453,7 @@
         <v>16.69556</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -20595,7 +19467,7 @@
         <v>17.05612</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -20609,7 +19481,7 @@
         <v>17.385000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -20623,7 +19495,7 @@
         <v>14.15814</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -20637,7 +19509,7 @@
         <v>5.2836600000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -20651,7 +19523,7 @@
         <v>1.235336</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -20665,7 +19537,7 @@
         <v>0.54253399999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -20679,7 +19551,7 @@
         <v>0.39072400000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -20693,7 +19565,7 @@
         <v>0.31174400000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -20707,7 +19579,7 @@
         <v>0.28184999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -20721,7 +19593,7 @@
         <v>0.26185199999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -20735,7 +19607,7 @@
         <v>0.248724</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -20749,7 +19621,7 @@
         <v>0.23840600000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -20763,7 +19635,7 @@
         <v>0.226548</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -20777,7 +19649,7 @@
         <v>0.20810799999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -20791,7 +19663,7 @@
         <v>0.17756160000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -20805,7 +19677,7 @@
         <v>0.14109740000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -20819,7 +19691,7 @@
         <v>8.4456600000000007E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -20833,7 +19705,7 @@
         <v>5.7007000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -20847,7 +19719,7 @@
         <v>4.6218599999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -20861,7 +19733,7 @@
         <v>4.2573199999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -20875,7 +19747,7 @@
         <v>4.3218199999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -20889,7 +19761,7 @@
         <v>4.3863399999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -20903,7 +19775,7 @@
         <v>4.2777200000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -20917,7 +19789,7 @@
         <v>4.1810199999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -20931,7 +19803,7 @@
         <v>1.904732E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -20945,7 +19817,7 @@
         <v>1.931538E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -20959,7 +19831,7 @@
         <v>1.9583639999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -20973,7 +19845,7 @@
         <v>1.9851919999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -20987,7 +19859,7 @@
         <v>2.0120200000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -21001,7 +19873,7 @@
         <v>2.0388400000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -21015,7 +19887,7 @@
         <v>2.0656799999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -21029,7 +19901,7 @@
         <v>2.0924999999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -21043,7 +19915,7 @@
         <v>2.1193199999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -21057,7 +19929,7 @@
         <v>2.1461600000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -21071,7 +19943,7 @@
         <v>2.1729800000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -21085,7 +19957,7 @@
         <v>2.1998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -21099,7 +19971,7 @@
         <v>2.2266399999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -21113,7 +19985,7 @@
         <v>2.2534599999999998E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -21127,7 +19999,7 @@
         <v>2.2802800000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -21141,7 +20013,7 @@
         <v>2.30712E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -21155,7 +20027,7 @@
         <v>2.33394E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -21169,7 +20041,7 @@
         <v>2.3607599999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -21183,7 +20055,7 @@
         <v>2.3876000000000001E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -21197,7 +20069,7 @@
         <v>2.4144200000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -21211,7 +20083,7 @@
         <v>2.4412400000000001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -21225,7 +20097,7 @@
         <v>2.4680799999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -21239,7 +20111,7 @@
         <v>2.4948999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -21253,7 +20125,7 @@
         <v>2.5217199999999999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -21267,7 +20139,7 @@
         <v>2.5485600000000001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -21281,7 +20153,7 @@
         <v>2.57538E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -21295,7 +20167,7 @@
         <v>2.6022E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -21309,7 +20181,7 @@
         <v>2.6290399999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -21323,7 +20195,7 @@
         <v>2.6511799999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>3</v>
       </c>
@@ -21350,9 +20222,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -21372,7 +20244,7 @@
         <v>17.69914</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -21392,7 +20264,7 @@
         <v>2507.8285575757568</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -21406,7 +20278,7 @@
         <v>1.253914</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -21420,7 +20292,7 @@
         <v>1.88087</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -21434,7 +20306,7 @@
         <v>2.5078200000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -21448,7 +20320,7 @@
         <v>3.1347800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -21462,7 +20334,7 @@
         <v>3.7617400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -21476,7 +20348,7 @@
         <v>4.3887</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -21490,7 +20362,7 @@
         <v>5.0156599999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -21504,7 +20376,7 @@
         <v>5.6426199999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -21518,7 +20390,7 @@
         <v>6.2695600000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -21532,7 +20404,7 @@
         <v>6.8965200000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -21546,7 +20418,7 @@
         <v>7.52346</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -21560,7 +20432,7 @@
         <v>8.1503800000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -21574,7 +20446,7 @@
         <v>8.7772199999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -21588,7 +20460,7 @@
         <v>9.4034800000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -21602,7 +20474,7 @@
         <v>10.02872</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -21616,7 +20488,7 @@
         <v>10.6517</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -21630,7 +20502,7 @@
         <v>11.259880000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -21644,7 +20516,7 @@
         <v>11.787739999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -21658,7 +20530,7 @@
         <v>12.311120000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -21672,7 +20544,7 @@
         <v>12.82014</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -21686,7 +20558,7 @@
         <v>13.138859999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -21700,7 +20572,7 @@
         <v>12.60544</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -21714,7 +20586,7 @@
         <v>11.332739999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -21728,7 +20600,7 @@
         <v>10.673539999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -21742,7 +20614,7 @@
         <v>10.63128</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -21756,7 +20628,7 @@
         <v>10.977880000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -21770,7 +20642,7 @@
         <v>11.332879999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -21784,7 +20656,7 @@
         <v>11.708119999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -21798,7 +20670,7 @@
         <v>12.0886</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -21812,7 +20684,7 @@
         <v>12.467000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -21826,7 +20698,7 @@
         <v>12.835660000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -21840,7 +20712,7 @@
         <v>13.16886</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -21854,7 +20726,7 @@
         <v>13.36534</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -21868,7 +20740,7 @@
         <v>13.454079999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -21882,7 +20754,7 @@
         <v>13.76712</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -21896,7 +20768,7 @@
         <v>14.10768</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -21910,7 +20782,7 @@
         <v>14.422499999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -21924,7 +20796,7 @@
         <v>14.77408</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -21938,7 +20810,7 @@
         <v>15.14034</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -21952,7 +20824,7 @@
         <v>15.505000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -21966,7 +20838,7 @@
         <v>15.87942</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -21980,7 +20852,7 @@
         <v>16.254899999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -21994,7 +20866,7 @@
         <v>16.630939999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -22008,7 +20880,7 @@
         <v>17.00676</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -22022,7 +20894,7 @@
         <v>17.379359999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -22036,7 +20908,7 @@
         <v>17.69914</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -22050,7 +20922,7 @@
         <v>16.12172</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -22064,7 +20936,7 @@
         <v>3.6329199999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -22078,7 +20950,7 @@
         <v>0.37092199999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -22092,7 +20964,7 @@
         <v>0.25328200000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -22106,7 +20978,7 @@
         <v>0.20721800000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -22120,7 +20992,7 @@
         <v>0.1772552</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -22134,7 +21006,7 @@
         <v>0.16725380000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -22148,7 +21020,7 @@
         <v>0.16331399999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -22162,7 +21034,7 @@
         <v>0.15753139999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -22176,7 +21048,7 @@
         <v>0.1533226</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -22190,7 +21062,7 @@
         <v>0.151751</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -22204,7 +21076,7 @@
         <v>0.15095059999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -22218,7 +21090,7 @@
         <v>0.1516246</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -22232,7 +21104,7 @@
         <v>0.15092120000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -22246,7 +21118,7 @@
         <v>0.1497744</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -22260,7 +21132,7 @@
         <v>0.14907599999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -22274,7 +21146,7 @@
         <v>0.14857239999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -22288,7 +21160,7 @@
         <v>0.14715320000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -22302,7 +21174,7 @@
         <v>0.14580480000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -22316,7 +21188,7 @@
         <v>0.14427780000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -22330,7 +21202,7 @@
         <v>0.14297480000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -22344,7 +21216,7 @@
         <v>0.14237179999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -22358,7 +21230,7 @@
         <v>0.1429224</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -22372,7 +21244,7 @@
         <v>0.1437358</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -22386,7 +21258,7 @@
         <v>0.141018</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -22400,7 +21272,7 @@
         <v>0.1399436</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -22414,7 +21286,7 @@
         <v>0.1407166</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -22428,7 +21300,7 @@
         <v>0.14102600000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -22442,7 +21314,7 @@
         <v>0.142008</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -22456,7 +21328,7 @@
         <v>0.1424262</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -22470,7 +21342,7 @@
         <v>0.1427612</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -22484,7 +21356,7 @@
         <v>0.14378740000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -22498,7 +21370,7 @@
         <v>0.14418900000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -22512,7 +21384,7 @@
         <v>0.14482719999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -22526,7 +21398,7 @@
         <v>0.14524380000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -22540,7 +21412,7 @@
         <v>0.14614759999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -22554,7 +21426,7 @@
         <v>0.14650940000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -22568,7 +21440,7 @@
         <v>0.14721039999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -22582,7 +21454,7 @@
         <v>0.14809240000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -22596,7 +21468,7 @@
         <v>0.1483476</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -22610,7 +21482,7 @@
         <v>0.1483796</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -22624,7 +21496,7 @@
         <v>0.14821239999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -22638,7 +21510,7 @@
         <v>0.14930679999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -22652,7 +21524,7 @@
         <v>0.14934700000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -22666,7 +21538,7 @@
         <v>0.14872260000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -22680,7 +21552,7 @@
         <v>0.1491024</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -22694,7 +21566,7 @@
         <v>0.14712439999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -22708,7 +21580,7 @@
         <v>0.1470014</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -22722,7 +21594,7 @@
         <v>0.1366848</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -22736,7 +21608,7 @@
         <v>0.1368876</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -22750,7 +21622,7 @@
         <v>0.1353528</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -22764,7 +21636,7 @@
         <v>0.13489200000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>2.9849999999999999</v>
       </c>
@@ -22778,7 +21650,7 @@
         <v>0.1352874</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>2.9925000000000002</v>
       </c>
@@ -22792,7 +21664,7 @@
         <v>0.13525719999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>2.9954999999999998</v>
       </c>
@@ -22806,7 +21678,7 @@
         <v>0.1349378</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>2.9977</v>
       </c>
@@ -22820,7 +21692,7 @@
         <v>0.13359360000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>3</v>
       </c>
@@ -22847,9 +21719,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -22869,7 +21741,7 @@
         <v>18.596800000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -22889,7 +21761,7 @@
         <v>2744.4213333333341</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -22903,7 +21775,7 @@
         <v>1.3722559999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -22917,7 +21789,7 @@
         <v>2.0583800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -22931,7 +21803,7 @@
         <v>2.7445200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -22945,7 +21817,7 @@
         <v>3.4306399999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -22959,7 +21831,7 @@
         <v>4.1167800000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -22973,7 +21845,7 @@
         <v>4.8029000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -22987,7 +21859,7 @@
         <v>5.4889800000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -23001,7 +21873,7 @@
         <v>6.1748400000000014</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -23015,7 +21887,7 @@
         <v>6.8600400000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -23029,7 +21901,7 @@
         <v>7.5434599999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -23043,7 +21915,7 @@
         <v>8.2250800000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -23057,7 +21929,7 @@
         <v>8.9032800000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -23071,7 +21943,7 @@
         <v>9.5790600000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -23085,7 +21957,7 @@
         <v>10.255140000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -23099,7 +21971,7 @@
         <v>10.9259</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -23113,7 +21985,7 @@
         <v>11.583819999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -23127,7 +21999,7 @@
         <v>12.19112</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -23141,7 +22013,7 @@
         <v>12.669639999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -23155,7 +22027,7 @@
         <v>13.13226</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -23169,7 +22041,7 @@
         <v>13.533939999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -23183,7 +22055,7 @@
         <v>13.62276</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -23197,7 +22069,7 @@
         <v>12.96998</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -23211,7 +22083,7 @@
         <v>12.25956</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -23225,7 +22097,7 @@
         <v>12.07206</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -23239,7 +22111,7 @@
         <v>12.08094</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -23253,7 +22125,7 @@
         <v>12.405720000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -23267,7 +22139,7 @@
         <v>12.819039999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -23281,7 +22153,7 @@
         <v>13.237360000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -23295,7 +22167,7 @@
         <v>13.647959999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -23309,7 +22181,7 @@
         <v>14.02666</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -23323,7 +22195,7 @@
         <v>14.382379999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -23337,7 +22209,7 @@
         <v>14.739979999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -23351,7 +22223,7 @@
         <v>15.068379999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -23365,7 +22237,7 @@
         <v>15.344200000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -23379,7 +22251,7 @@
         <v>15.5703</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -23393,7 +22265,7 @@
         <v>15.281980000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -23407,7 +22279,7 @@
         <v>15.583159999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -23421,7 +22293,7 @@
         <v>15.95566</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -23435,7 +22307,7 @@
         <v>16.342839999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -23449,7 +22321,7 @@
         <v>16.739699999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -23463,7 +22335,7 @@
         <v>17.141380000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -23477,7 +22349,7 @@
         <v>17.544180000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -23491,7 +22363,7 @@
         <v>17.945679999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -23505,7 +22377,7 @@
         <v>18.343160000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -23519,7 +22391,7 @@
         <v>18.596800000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -23533,7 +22405,7 @@
         <v>14.547840000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -23547,7 +22419,7 @@
         <v>6.3506799999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -23561,7 +22433,7 @@
         <v>0.31148999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -23575,7 +22447,7 @@
         <v>0.15604899999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -23589,7 +22461,7 @@
         <v>0.121701</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -23603,7 +22475,7 @@
         <v>0.1031852</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -23617,7 +22489,7 @@
         <v>9.2507800000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -23631,7 +22503,7 @@
         <v>8.6876800000000004E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -23645,7 +22517,7 @@
         <v>8.13392E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -23659,7 +22531,7 @@
         <v>7.7267200000000008E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -23673,7 +22545,7 @@
         <v>7.4076799999999998E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -23687,7 +22559,7 @@
         <v>6.9969799999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -23701,7 +22573,7 @@
         <v>6.6462000000000007E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -23715,7 +22587,7 @@
         <v>6.3842800000000005E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -23729,7 +22601,7 @@
         <v>6.1275400000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -23743,7 +22615,7 @@
         <v>5.8585199999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -23757,7 +22629,7 @@
         <v>5.7272200000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -23771,7 +22643,7 @@
         <v>5.5907799999999987E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -23785,7 +22657,7 @@
         <v>5.4021399999999997E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -23799,7 +22671,7 @@
         <v>5.1172799999999997E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -23813,7 +22685,7 @@
         <v>4.8925200000000002E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -23827,7 +22699,7 @@
         <v>4.7965999999999988E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -23841,7 +22713,7 @@
         <v>4.6186199999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -23855,7 +22727,7 @@
         <v>4.4425399999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -23869,7 +22741,7 @@
         <v>4.3680399999999987E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -23883,7 +22755,7 @@
         <v>4.09162E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -23897,7 +22769,7 @@
         <v>4.0106999999999997E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -23911,7 +22783,7 @@
         <v>3.7288799999999997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -23925,7 +22797,7 @@
         <v>3.3038199999999997E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -23939,7 +22811,7 @@
         <v>3.3231400000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -23953,7 +22825,7 @@
         <v>3.2238000000000003E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -23967,7 +22839,7 @@
         <v>3.1488200000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -23981,7 +22853,7 @@
         <v>3.1891799999999998E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -23995,7 +22867,7 @@
         <v>3.1357799999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -24009,7 +22881,7 @@
         <v>3.1749800000000002E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -24023,7 +22895,7 @@
         <v>3.2141799999999998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -24037,7 +22909,7 @@
         <v>3.2533800000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -24051,7 +22923,7 @@
         <v>3.2925799999999998E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -24065,7 +22937,7 @@
         <v>3.3317800000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -24079,7 +22951,7 @@
         <v>3.3709799999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -24093,7 +22965,7 @@
         <v>3.4101600000000003E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -24107,7 +22979,7 @@
         <v>3.4493599999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -24121,7 +22993,7 @@
         <v>3.4885600000000003E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -24135,7 +23007,7 @@
         <v>3.5277599999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -24149,7 +23021,7 @@
         <v>3.5669600000000003E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -24163,7 +23035,7 @@
         <v>3.6061599999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -24177,7 +23049,7 @@
         <v>3.6453600000000003E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -24191,7 +23063,7 @@
         <v>3.68454E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -24205,7 +23077,7 @@
         <v>3.71574E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -24219,7 +23091,7 @@
         <v>3.7548600000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -24233,7 +23105,7 @@
         <v>3.7939800000000003E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -24247,7 +23119,7 @@
         <v>3.8330799999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -24261,7 +23133,7 @@
         <v>3.8721999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>3</v>
       </c>
@@ -24288,9 +23160,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -24310,7 +23182,7 @@
         <v>19.29814</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -24330,7 +23202,7 @@
         <v>3110.5579151515149</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -24344,7 +23216,7 @@
         <v>1.5575639999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -24358,7 +23230,7 @@
         <v>2.3363399999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -24372,7 +23244,7 @@
         <v>3.1151200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -24386,7 +23258,7 @@
         <v>3.8938999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -24400,7 +23272,7 @@
         <v>4.6725000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -24414,7 +23286,7 @@
         <v>5.4504400000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -24428,7 +23300,7 @@
         <v>6.2277399999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -24442,7 +23314,7 @@
         <v>7.0026999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -24456,7 +23328,7 @@
         <v>7.7735599999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -24470,7 +23342,7 @@
         <v>8.5365800000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -24484,7 +23356,7 @@
         <v>9.2972400000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -24498,7 +23370,7 @@
         <v>10.05734</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -24512,7 +23384,7 @@
         <v>10.80706</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -24526,7 +23398,7 @@
         <v>11.55364</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -24540,7 +23412,7 @@
         <v>12.27394</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -24554,7 +23426,7 @@
         <v>12.92998</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -24568,7 +23440,7 @@
         <v>13.50004</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -24582,7 +23454,7 @@
         <v>13.988200000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -24596,7 +23468,7 @@
         <v>14.39616</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -24610,7 +23482,7 @@
         <v>14.25536</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -24624,7 +23496,7 @@
         <v>13.62082</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -24638,7 +23510,7 @@
         <v>13.46616</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -24652,7 +23524,7 @@
         <v>13.696680000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -24666,7 +23538,7 @@
         <v>14.00666</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -24680,7 +23552,7 @@
         <v>14.26712</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -24694,7 +23566,7 @@
         <v>14.51848</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -24708,7 +23580,7 @@
         <v>14.763820000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -24722,7 +23594,7 @@
         <v>15.125579999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -24736,7 +23608,7 @@
         <v>15.520379999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -24750,7 +23622,7 @@
         <v>15.89958</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -24764,7 +23636,7 @@
         <v>15.638960000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -24778,7 +23650,7 @@
         <v>14.790100000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -24792,7 +23664,7 @@
         <v>15.096500000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -24806,7 +23678,7 @@
         <v>15.46848</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -24820,7 +23692,7 @@
         <v>15.8748</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -24834,7 +23706,7 @@
         <v>16.299859999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -24848,7 +23720,7 @@
         <v>16.729399999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -24862,7 +23734,7 @@
         <v>17.161000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -24876,7 +23748,7 @@
         <v>17.59216</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -24890,7 +23762,7 @@
         <v>18.023440000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -24904,7 +23776,7 @@
         <v>18.45552</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -24918,7 +23790,7 @@
         <v>18.886060000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -24932,7 +23804,7 @@
         <v>19.29814</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -24946,7 +23818,7 @@
         <v>19.293520000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -24960,7 +23832,7 @@
         <v>12.1717</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -24974,7 +23846,7 @@
         <v>6.3030399999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -24988,7 +23860,7 @@
         <v>4.33216</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -25002,7 +23874,7 @@
         <v>2.4897999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -25016,7 +23888,7 @@
         <v>1.2629319999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -25030,7 +23902,7 @@
         <v>0.96037000000000006</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -25044,7 +23916,7 @@
         <v>0.85206999999999988</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -25058,7 +23930,7 @@
         <v>0.77560799999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -25072,7 +23944,7 @@
         <v>0.69483800000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -25086,7 +23958,7 @@
         <v>0.63793999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -25100,7 +23972,7 @@
         <v>0.57904800000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -25114,7 +23986,7 @@
         <v>0.54971400000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -25128,7 +24000,7 @@
         <v>0.53478400000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -25142,7 +24014,7 @@
         <v>0.50268000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -25156,7 +24028,7 @@
         <v>0.48420200000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -25170,7 +24042,7 @@
         <v>0.47270200000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -25184,7 +24056,7 @@
         <v>0.45810400000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -25198,7 +24070,7 @@
         <v>0.42392400000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -25212,7 +24084,7 @@
         <v>0.39871000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -25226,7 +24098,7 @@
         <v>0.39185399999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -25240,7 +24112,7 @@
         <v>0.36951800000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -25254,7 +24126,7 @@
         <v>0.36957400000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -25268,7 +24140,7 @@
         <v>0.34783399999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -25282,7 +24154,7 @@
         <v>0.34783999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -25296,7 +24168,7 @@
         <v>0.35037200000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -25310,7 +24182,7 @@
         <v>0.34633399999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -25324,7 +24196,7 @@
         <v>0.349244</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -25338,7 +24210,7 @@
         <v>0.34871799999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -25352,7 +24224,7 @@
         <v>0.34504600000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -25366,7 +24238,7 @@
         <v>0.34536600000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -25380,7 +24252,7 @@
         <v>0.348636</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -25394,7 +24266,7 @@
         <v>0.351244</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -25408,7 +24280,7 @@
         <v>0.35436800000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -25422,7 +24294,7 @@
         <v>0.35776200000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -25436,7 +24308,7 @@
         <v>0.36109999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -25450,7 +24322,7 @@
         <v>0.32883600000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -25464,7 +24336,7 @@
         <v>0.30523600000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -25478,7 +24350,7 @@
         <v>0.306228</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -25492,7 +24364,7 @@
         <v>0.30730400000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -25506,7 +24378,7 @@
         <v>0.30992199999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -25520,7 +24392,7 @@
         <v>0.312834</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -25534,7 +24406,7 @@
         <v>0.31558599999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -25548,7 +24420,7 @@
         <v>0.31785200000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -25562,7 +24434,7 @@
         <v>0.32080799999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -25576,7 +24448,7 @@
         <v>0.32357599999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -25590,7 +24462,7 @@
         <v>0.325098</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -25604,7 +24476,7 @@
         <v>0.327374</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -25618,7 +24490,7 @@
         <v>0.3296</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -25632,7 +24504,7 @@
         <v>0.33239999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -25646,7 +24518,7 @@
         <v>0.33540999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -25660,7 +24532,7 @@
         <v>0.33827200000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -25674,7 +24546,7 @@
         <v>0.34066200000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -25688,7 +24560,7 @@
         <v>0.31636799999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -25702,7 +24574,7 @@
         <v>0.30996600000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>2.9849999999999999</v>
       </c>
@@ -25716,7 +24588,7 @@
         <v>0.310778</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>2.9925000000000002</v>
       </c>
@@ -25730,7 +24602,7 @@
         <v>0.31059199999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>2.9954999999999998</v>
       </c>
@@ -25744,7 +24616,7 @@
         <v>0.30988399999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>2.9977</v>
       </c>
@@ -25758,7 +24630,7 @@
         <v>0.30769999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>3</v>
       </c>
@@ -25785,9 +24657,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -25807,7 +24679,7 @@
         <v>17.216080000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -25827,7 +24699,7 @@
         <v>3579.788</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -25841,7 +24713,7 @@
         <v>1.7943359999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -25855,7 +24727,7 @@
         <v>2.6915</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -25869,7 +24741,7 @@
         <v>3.5886800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -25883,7 +24755,7 @@
         <v>4.4858399999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -25897,7 +24769,7 @@
         <v>5.3822200000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -25911,7 +24783,7 @@
         <v>6.2767999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -25925,7 +24797,7 @@
         <v>7.1668399999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -25939,7 +24811,7 @@
         <v>8.0509599999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -25953,7 +24825,7 @@
         <v>8.9213199999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -25967,7 +24839,7 @@
         <v>9.7838999999999992</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -25981,7 +24853,7 @@
         <v>10.64148</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -25995,7 +24867,7 @@
         <v>11.487399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -26009,7 +24881,7 @@
         <v>12.31302</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -26023,7 +24895,7 @@
         <v>13.0793</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -26037,7 +24909,7 @@
         <v>13.76962</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -26051,7 +24923,7 @@
         <v>14.42746</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -26065,7 +24937,7 @@
         <v>14.877879999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -26079,7 +24951,7 @@
         <v>14.915279999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -26093,7 +24965,7 @@
         <v>14.59676</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -26107,7 +24979,7 @@
         <v>14.59506</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -26121,7 +24993,7 @@
         <v>14.94144</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -26135,7 +25007,7 @@
         <v>15.38214</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -26149,7 +25021,7 @@
         <v>15.8322</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -26163,7 +25035,7 @@
         <v>16.270160000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -26177,7 +25049,7 @@
         <v>16.71246</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -26191,7 +25063,7 @@
         <v>17.10098</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -26205,7 +25077,7 @@
         <v>17.216080000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -26219,7 +25091,7 @@
         <v>16.7257</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -26233,7 +25105,7 @@
         <v>16.406320000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -26247,7 +25119,7 @@
         <v>15.731999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -26261,7 +25133,7 @@
         <v>14.388999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -26275,7 +25147,7 @@
         <v>10.730259999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -26289,7 +25161,7 @@
         <v>9.4945799999999991</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -26303,7 +25175,7 @@
         <v>8.5198599999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -26317,7 +25189,7 @@
         <v>3.81806</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -26331,7 +25203,7 @@
         <v>1.0645180000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -26345,7 +25217,7 @@
         <v>0.73232200000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -26359,7 +25231,7 @@
         <v>0.63046599999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -26373,7 +25245,7 @@
         <v>0.54793000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -26387,7 +25259,7 @@
         <v>0.507324</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -26401,7 +25273,7 @@
         <v>0.49362400000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -26415,7 +25287,7 @@
         <v>0.48382799999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -26429,7 +25301,7 @@
         <v>0.47311799999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -26443,7 +25315,7 @@
         <v>0.47169199999999989</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -26457,7 +25329,7 @@
         <v>0.46750399999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -26471,7 +25343,7 @@
         <v>0.45841399999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -26485,7 +25357,7 @@
         <v>0.46188600000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -26499,7 +25371,7 @@
         <v>0.46499600000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -26513,7 +25385,7 @@
         <v>0.46656799999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -26527,7 +25399,7 @@
         <v>0.45972600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -26541,7 +25413,7 @@
         <v>0.42160199999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -26555,7 +25427,7 @@
         <v>0.42972399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -26569,7 +25441,7 @@
         <v>0.43780999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -26583,7 +25455,7 @@
         <v>0.44589400000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -26597,7 +25469,7 @@
         <v>0.453984</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -26611,7 +25483,7 @@
         <v>0.46209000000000011</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -26625,7 +25497,7 @@
         <v>0.47018399999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -26639,7 +25511,7 @@
         <v>0.47824</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -26653,7 +25525,7 @@
         <v>0.48631400000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -26667,7 +25539,7 @@
         <v>0.49435800000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -26681,7 +25553,7 @@
         <v>0.50235600000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -26695,7 +25567,7 @@
         <v>0.51039999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -26709,7 +25581,7 @@
         <v>0.51819999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -26723,7 +25595,7 @@
         <v>0.52629800000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -26737,7 +25609,7 @@
         <v>0.53425199999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -26751,7 +25623,7 @@
         <v>0.54217000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -26765,7 +25637,7 @@
         <v>0.55022599999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -26779,7 +25651,7 @@
         <v>0.55830199999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -26793,7 +25665,7 @@
         <v>0.494672</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -26807,7 +25679,7 @@
         <v>0.50166200000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -26821,7 +25693,7 @@
         <v>0.50860399999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -26835,7 +25707,7 @@
         <v>0.51566800000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -26849,7 +25721,7 @@
         <v>0.52273199999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -26863,7 +25735,7 @@
         <v>0.52979599999999993</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -26877,7 +25749,7 @@
         <v>0.53686</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -26891,7 +25763,7 @@
         <v>0.54388000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -26905,7 +25777,7 @@
         <v>0.55088000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -26919,7 +25791,7 @@
         <v>0.55788800000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -26933,7 +25805,7 @@
         <v>0.56494999999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -26947,7 +25819,7 @@
         <v>0.57201199999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -26961,7 +25833,7 @@
         <v>0.57907399999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -26975,7 +25847,7 @@
         <v>0.58596199999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -26989,7 +25861,7 @@
         <v>0.59298799999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -27003,7 +25875,7 @@
         <v>0.59999199999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -27017,7 +25889,7 @@
         <v>0.60705199999999992</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -27031,7 +25903,7 @@
         <v>0.61405399999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -27045,7 +25917,7 @@
         <v>0.62109599999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -27059,7 +25931,7 @@
         <v>0.62808999999999993</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -27073,7 +25945,7 @@
         <v>0.44756800000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -27087,7 +25959,7 @@
         <v>0.44764199999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -27101,7 +25973,7 @@
         <v>0.45256000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -27115,7 +25987,7 @@
         <v>0.45748</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -27129,7 +26001,7 @@
         <v>0.46239799999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -27143,7 +26015,7 @@
         <v>0.46731800000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -27157,7 +26029,7 @@
         <v>0.47221999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -27171,7 +26043,7 @@
         <v>0.47713800000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -27185,7 +26057,7 @@
         <v>0.48205799999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -27199,7 +26071,7 @@
         <v>0.48697600000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>3</v>
       </c>
@@ -27226,9 +26098,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -27248,7 +26120,7 @@
         <v>18.470300000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -27268,7 +26140,7 @@
         <v>4083.25115151515</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -27282,7 +26154,7 @@
         <v>2.05938</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -27296,7 +26168,7 @@
         <v>3.08908</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -27310,7 +26182,7 @@
         <v>4.11876</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -27324,7 +26196,7 @@
         <v>5.1482600000000014</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -27338,7 +26210,7 @@
         <v>6.1759400000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -27352,7 +26224,7 @@
         <v>7.1992399999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -27366,7 +26238,7 @@
         <v>8.2152399999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -27380,7 +26252,7 @@
         <v>9.2129799999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -27394,7 +26266,7 @@
         <v>10.191800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -27408,7 +26280,7 @@
         <v>11.159979999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -27422,7 +26294,7 @@
         <v>12.09928</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -27436,7 +26308,7 @@
         <v>12.99432</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -27450,7 +26322,7 @@
         <v>13.8248</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -27464,7 +26336,7 @@
         <v>14.613020000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -27478,7 +26350,7 @@
         <v>15.204079999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -27492,7 +26364,7 @@
         <v>15.371259999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -27506,7 +26378,7 @@
         <v>15.4443</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -27520,7 +26392,7 @@
         <v>15.57742</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -27534,7 +26406,7 @@
         <v>15.866059999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -27548,7 +26420,7 @@
         <v>16.26388</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -27562,7 +26434,7 @@
         <v>16.77458</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -27576,7 +26448,7 @@
         <v>17.300920000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -27590,7 +26462,7 @@
         <v>17.852419999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -27604,7 +26476,7 @@
         <v>18.31184</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -27618,7 +26490,7 @@
         <v>18.470300000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -27632,7 +26504,7 @@
         <v>18.43892</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -27646,7 +26518,7 @@
         <v>17.418199999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -27660,7 +26532,7 @@
         <v>7.2670399999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -27674,7 +26546,7 @@
         <v>6.8039399999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -27688,7 +26560,7 @@
         <v>6.8737199999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -27702,7 +26574,7 @@
         <v>7.0257000000000014</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -27716,7 +26588,7 @@
         <v>7.1961599999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -27730,7 +26602,7 @@
         <v>7.38462</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -27744,7 +26616,7 @@
         <v>7.5850999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -27758,7 +26630,7 @@
         <v>7.7889799999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -27772,7 +26644,7 @@
         <v>7.9959400000000009</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -27786,7 +26658,7 @@
         <v>8.2030200000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -27800,7 +26672,7 @@
         <v>8.4086999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -27814,7 +26686,7 @@
         <v>8.6074199999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -27828,7 +26700,7 @@
         <v>8.7984400000000011</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -27842,7 +26714,7 @@
         <v>8.9940800000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -27856,7 +26728,7 @@
         <v>9.1873400000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -27870,7 +26742,7 @@
         <v>9.376100000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -27884,7 +26756,7 @@
         <v>9.5589200000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -27898,7 +26770,7 @@
         <v>9.7461000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -27912,7 +26784,7 @@
         <v>9.9282799999999991</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -27926,7 +26798,7 @@
         <v>10.109</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -27940,7 +26812,7 @@
         <v>10.292759999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -27954,7 +26826,7 @@
         <v>10.470980000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -27968,7 +26840,7 @@
         <v>10.642440000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -27982,7 +26854,7 @@
         <v>10.80298</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -27996,7 +26868,7 @@
         <v>10.94528</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -28010,7 +26882,7 @@
         <v>11.071859999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -28024,7 +26896,7 @@
         <v>11.20116</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -28038,7 +26910,7 @@
         <v>11.31908</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -28052,7 +26924,7 @@
         <v>11.41456</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -28066,7 +26938,7 @@
         <v>11.500540000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -28080,7 +26952,7 @@
         <v>11.582179999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -28094,7 +26966,7 @@
         <v>11.64878</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -28108,7 +26980,7 @@
         <v>11.73612</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -28122,7 +26994,7 @@
         <v>11.81034</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -28136,7 +27008,7 @@
         <v>11.893520000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -28150,7 +27022,7 @@
         <v>12.003959999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -28164,7 +27036,7 @@
         <v>12.1205</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -28178,7 +27050,7 @@
         <v>12.2254</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -28192,7 +27064,7 @@
         <v>12.32108</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -28206,7 +27078,7 @@
         <v>12.39972</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -28220,7 +27092,7 @@
         <v>12.47312</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -28234,7 +27106,7 @@
         <v>12.55566</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -28248,7 +27120,7 @@
         <v>12.61534</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -28262,7 +27134,7 @@
         <v>12.62194</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -28276,7 +27148,7 @@
         <v>12.63884</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -28290,7 +27162,7 @@
         <v>12.65386</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -28304,7 +27176,7 @@
         <v>12.6342</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -28318,7 +27190,7 @@
         <v>12.49784</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -28332,7 +27204,7 @@
         <v>12.3055</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -28346,7 +27218,7 @@
         <v>12.008279999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -28360,7 +27232,7 @@
         <v>11.57746</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -28374,7 +27246,7 @@
         <v>10.603160000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -28388,7 +27260,7 @@
         <v>9.6376200000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -28402,7 +27274,7 @@
         <v>8.5107400000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -28416,7 +27288,7 @@
         <v>7.4386999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -28430,7 +27302,7 @@
         <v>6.5702599999999993</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -28444,7 +27316,7 @@
         <v>5.6271000000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -28458,7 +27330,7 @@
         <v>5.1145999999999994</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -28472,7 +27344,7 @@
         <v>4.5065200000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -28486,7 +27358,7 @@
         <v>3.7168999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -28500,7 +27372,7 @@
         <v>3.3816000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -28514,7 +27386,7 @@
         <v>3.1586400000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -28528,7 +27400,7 @@
         <v>2.94224</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -28542,7 +27414,7 @@
         <v>2.06386</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -28556,7 +27428,7 @@
         <v>1.679076</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -28570,7 +27442,7 @@
         <v>1.5109399999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -28584,7 +27456,7 @@
         <v>1.2379020000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -28598,7 +27470,7 @@
         <v>1.0284180000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -28612,7 +27484,7 @@
         <v>0.95140400000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -28626,7 +27498,7 @@
         <v>0.95691400000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -28640,7 +27512,7 @@
         <v>0.96193399999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>2.9849999999999999</v>
       </c>
@@ -28654,7 +27526,7 @@
         <v>0.96513800000000005</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>2.9925000000000002</v>
       </c>
@@ -28668,7 +27540,7 @@
         <v>0.96526600000000007</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>2.9954999999999998</v>
       </c>
@@ -28682,7 +27554,7 @@
         <v>0.96289400000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>2.9977</v>
       </c>
@@ -28696,7 +27568,7 @@
         <v>0.93324200000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>3</v>
       </c>
@@ -28723,9 +27595,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -28745,7 +27617,7 @@
         <v>19.908919999999998</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -28765,7 +27637,7 @@
         <v>4624.2594666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -28779,7 +27651,7 @@
         <v>2.3290999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -28793,7 +27665,7 @@
         <v>3.4936600000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -28807,7 +27679,7 @@
         <v>4.6581999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -28821,7 +27693,7 @@
         <v>5.8226199999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -28835,7 +27707,7 @@
         <v>6.9850400000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -28849,7 +27721,7 @@
         <v>8.1388599999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -28863,7 +27735,7 @@
         <v>9.2794399999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -28877,7 +27749,7 @@
         <v>10.38846</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -28891,7 +27763,7 @@
         <v>11.46218</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -28905,7 +27777,7 @@
         <v>12.491759999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -28919,7 +27791,7 @@
         <v>13.483000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -28933,7 +27805,7 @@
         <v>14.428979999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -28947,7 +27819,7 @@
         <v>15.222899999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -28961,7 +27833,7 @@
         <v>15.596080000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -28975,7 +27847,7 @@
         <v>15.772360000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -28989,7 +27861,7 @@
         <v>15.94224</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -29003,7 +27875,7 @@
         <v>16.333220000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -29017,7 +27889,7 @@
         <v>16.84618</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -29031,7 +27903,7 @@
         <v>17.40194</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -29045,7 +27917,7 @@
         <v>17.95552</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -29059,7 +27931,7 @@
         <v>18.528040000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -29073,7 +27945,7 @@
         <v>19.1172</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -29087,7 +27959,7 @@
         <v>19.669219999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -29101,7 +27973,7 @@
         <v>19.890059999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -29115,7 +27987,7 @@
         <v>19.908919999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -29129,7 +28001,7 @@
         <v>18.201820000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -29143,7 +28015,7 @@
         <v>7.9101199999999992</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -29157,7 +28029,7 @@
         <v>7.6866600000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -29171,7 +28043,7 @@
         <v>7.7703800000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -29185,7 +28057,7 @@
         <v>7.8850800000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -29199,7 +28071,7 @@
         <v>7.9866600000000014</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -29213,7 +28085,7 @@
         <v>8.0111000000000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -29227,7 +28099,7 @@
         <v>7.9460000000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -29241,7 +28113,7 @@
         <v>7.99092</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -29255,7 +28127,7 @@
         <v>8.0934400000000011</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -29269,7 +28141,7 @@
         <v>8.2357399999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -29283,7 +28155,7 @@
         <v>8.3641799999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -29297,7 +28169,7 @@
         <v>8.4947199999999992</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -29311,7 +28183,7 @@
         <v>8.6203800000000008</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -29325,7 +28197,7 @@
         <v>8.706900000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -29339,7 +28211,7 @@
         <v>8.5653399999999991</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -29353,7 +28225,7 @@
         <v>7.4159600000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -29367,7 +28239,7 @@
         <v>6.6564800000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -29381,7 +28253,7 @@
         <v>6.2216200000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -29395,7 +28267,7 @@
         <v>4.3428599999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -29409,7 +28281,7 @@
         <v>2.0719400000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -29423,7 +28295,7 @@
         <v>1.3444020000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -29437,7 +28309,7 @@
         <v>0.8704900000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -29451,7 +28323,7 @@
         <v>0.72267999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -29465,7 +28337,7 @@
         <v>0.68502399999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -29479,7 +28351,7 @@
         <v>0.65549400000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -29493,7 +28365,7 @@
         <v>0.63806800000000008</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -29507,7 +28379,7 @@
         <v>0.65010800000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -29521,7 +28393,7 @@
         <v>0.66214600000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -29535,7 +28407,7 @@
         <v>0.67418599999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -29549,7 +28421,7 @@
         <v>0.68622399999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -29563,7 +28435,7 @@
         <v>0.69764399999999993</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -29577,7 +28449,7 @@
         <v>0.70722200000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -29591,7 +28463,7 @@
         <v>0.71909400000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -29605,7 +28477,7 @@
         <v>0.73089599999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -29619,7 +28491,7 @@
         <v>0.74280199999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -29633,7 +28505,7 @@
         <v>0.75478200000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -29647,7 +28519,7 @@
         <v>0.76676199999999994</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -29661,7 +28533,7 @@
         <v>0.77874399999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -29675,7 +28547,7 @@
         <v>0.79053399999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -29689,7 +28561,7 @@
         <v>0.802512</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -29703,7 +28575,7 @@
         <v>0.81448999999999994</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -29717,7 +28589,7 @@
         <v>0.82646799999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -29731,7 +28603,7 @@
         <v>0.83844399999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -29745,7 +28617,7 @@
         <v>0.8504219999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -29759,7 +28631,7 @@
         <v>0.86239999999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -29773,7 +28645,7 @@
         <v>0.75309999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -29787,7 +28659,7 @@
         <v>0.76011200000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -29801,7 +28673,7 @@
         <v>0.7702119999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -29815,7 +28687,7 @@
         <v>0.7804819999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -29829,7 +28701,7 @@
         <v>0.79075000000000006</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -29843,7 +28715,7 @@
         <v>0.80102000000000007</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -29857,7 +28729,7 @@
         <v>0.81129000000000007</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -29871,7 +28743,7 @@
         <v>0.82155800000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -29885,7 +28757,7 @@
         <v>0.83180599999999993</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -29899,7 +28771,7 @@
         <v>0.84074599999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -29913,7 +28785,7 @@
         <v>0.85078799999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -29927,7 +28799,7 @@
         <v>0.86090599999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -29941,7 +28813,7 @@
         <v>0.87102599999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -29955,7 +28827,7 @@
         <v>0.88124999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -29969,7 +28841,7 @@
         <v>0.8914700000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -29983,7 +28855,7 @@
         <v>0.90170400000000006</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -29997,7 +28869,7 @@
         <v>0.91190399999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -30011,7 +28883,7 @@
         <v>0.92207800000000006</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -30025,7 +28897,7 @@
         <v>0.93220200000000009</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -30039,7 +28911,7 @@
         <v>0.94219800000000009</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -30053,7 +28925,7 @@
         <v>0.952102</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -30067,7 +28939,7 @@
         <v>0.9116200000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -30081,7 +28953,7 @@
         <v>0.92112399999999994</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -30095,7 +28967,7 @@
         <v>0.92581999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -30109,7 +28981,7 @@
         <v>0.92357</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -30123,7 +28995,7 @@
         <v>0.93258600000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -30137,7 +29009,7 @@
         <v>0.93905400000000006</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>3</v>
       </c>
@@ -30164,9 +29036,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -30186,7 +29058,7 @@
         <v>17.895520000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -30206,7 +29078,7 @@
         <v>5420.5266424242418</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -30220,7 +29092,7 @@
         <v>2.79616</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -30234,7 +29106,7 @@
         <v>4.1942599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -30248,7 +29120,7 @@
         <v>5.5923400000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -30262,7 +29134,7 @@
         <v>6.9901</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -30276,7 +29148,7 @@
         <v>8.3823600000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -30290,7 +29162,7 @@
         <v>9.7389399999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -30304,7 +29176,7 @@
         <v>11.05006</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -30318,7 +29190,7 @@
         <v>12.305960000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -30332,7 +29204,7 @@
         <v>13.499980000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -30346,7 +29218,7 @@
         <v>14.65408</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -30360,7 +29232,7 @@
         <v>15.362740000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -30374,7 +29246,7 @@
         <v>15.85008</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -30388,7 +29260,7 @@
         <v>16.118839999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -30402,7 +29274,7 @@
         <v>16.560739999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -30416,7 +29288,7 @@
         <v>17.084820000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -30430,7 +29302,7 @@
         <v>17.602599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -30444,7 +29316,7 @@
         <v>17.895520000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -30458,7 +29330,7 @@
         <v>17.37378</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -30472,7 +29344,7 @@
         <v>15.908239999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -30486,7 +29358,7 @@
         <v>15.09698</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -30500,7 +29372,7 @@
         <v>12.97466</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -30514,7 +29386,7 @@
         <v>7.9762400000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -30528,7 +29400,7 @@
         <v>5.0120800000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -30542,7 +29414,7 @@
         <v>4.4060800000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -30556,7 +29428,7 @@
         <v>3.8571399999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -30570,7 +29442,7 @@
         <v>3.2166600000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -30584,7 +29456,7 @@
         <v>2.9028800000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -30598,7 +29470,7 @@
         <v>2.7570800000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -30612,7 +29484,7 @@
         <v>2.6838199999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -30626,7 +29498,7 @@
         <v>2.6495799999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -30640,7 +29512,7 @@
         <v>2.6324800000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -30654,7 +29526,7 @@
         <v>2.6384400000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -30668,7 +29540,7 @@
         <v>2.6558600000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -30682,7 +29554,7 @@
         <v>2.6951999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -30696,7 +29568,7 @@
         <v>2.73176</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -30710,7 +29582,7 @@
         <v>2.7718400000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -30724,7 +29596,7 @@
         <v>2.81304</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -30738,7 +29610,7 @@
         <v>2.85928</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -30752,7 +29624,7 @@
         <v>2.9011999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -30766,7 +29638,7 @@
         <v>2.9156399999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -30780,7 +29652,7 @@
         <v>2.8775400000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -30794,7 +29666,7 @@
         <v>2.8477999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -30808,7 +29680,7 @@
         <v>2.8397800000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -30822,7 +29694,7 @@
         <v>2.8464200000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -30836,7 +29708,7 @@
         <v>2.8712800000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -30850,7 +29722,7 @@
         <v>2.8945400000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -30864,7 +29736,7 @@
         <v>2.9037000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -30878,7 +29750,7 @@
         <v>2.7070400000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -30892,7 +29764,7 @@
         <v>2.7083599999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -30906,7 +29778,7 @@
         <v>2.73706</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -30920,7 +29792,7 @@
         <v>2.77894</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -30934,7 +29806,7 @@
         <v>2.8232200000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -30948,7 +29820,7 @@
         <v>2.8687</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -30962,7 +29834,7 @@
         <v>2.91188</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -30976,7 +29848,7 @@
         <v>2.9529200000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -30990,7 +29862,7 @@
         <v>2.9938799999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -31004,7 +29876,7 @@
         <v>3.0385</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -31018,7 +29890,7 @@
         <v>3.0842000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -31032,7 +29904,7 @@
         <v>3.1246</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -31046,7 +29918,7 @@
         <v>3.1697199999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -31060,7 +29932,7 @@
         <v>3.2093400000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -31074,7 +29946,7 @@
         <v>3.2534999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -31088,7 +29960,7 @@
         <v>3.29576</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -31102,7 +29974,7 @@
         <v>3.3347000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -31116,7 +29988,7 @@
         <v>3.3751000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -31130,7 +30002,7 @@
         <v>3.4162400000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -31144,7 +30016,7 @@
         <v>3.4468800000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -31158,7 +30030,7 @@
         <v>3.4720599999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -31172,7 +30044,7 @@
         <v>3.4946199999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -31186,7 +30058,7 @@
         <v>3.5004200000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -31200,7 +30072,7 @@
         <v>3.5259200000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -31214,7 +30086,7 @@
         <v>3.5417800000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -31228,7 +30100,7 @@
         <v>3.5667599999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -31242,7 +30114,7 @@
         <v>3.6010800000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -31256,7 +30128,7 @@
         <v>3.6380400000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -31270,7 +30142,7 @@
         <v>3.6728200000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -31284,7 +30156,7 @@
         <v>3.7044999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -31298,7 +30170,7 @@
         <v>3.73746</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -31312,7 +30184,7 @@
         <v>3.7688600000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -31326,7 +30198,7 @@
         <v>3.7924600000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -31340,7 +30212,7 @@
         <v>3.8144</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -31354,7 +30226,7 @@
         <v>3.8022399999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -31368,7 +30240,7 @@
         <v>3.7779199999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -31382,7 +30254,7 @@
         <v>3.6715200000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -31396,7 +30268,7 @@
         <v>3.42448</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -31410,7 +30282,7 @@
         <v>2.92578</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -31424,7 +30296,7 @@
         <v>2.3677800000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -31438,7 +30310,7 @@
         <v>1.9834240000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -31452,7 +30324,7 @@
         <v>1.648066</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -31466,7 +30338,7 @@
         <v>1.444118</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -31480,7 +30352,7 @@
         <v>1.45136</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -31494,7 +30366,7 @@
         <v>1.455354</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -31508,7 +30380,7 @@
         <v>1.4705680000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -31522,7 +30394,7 @@
         <v>1.4861979999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -31536,7 +30408,7 @@
         <v>1.5018260000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -31550,7 +30422,7 @@
         <v>1.517452</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -31564,7 +30436,7 @@
         <v>1.5323020000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -31578,7 +30450,7 @@
         <v>1.5450440000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>2.9849999999999999</v>
       </c>
@@ -31592,7 +30464,7 @@
         <v>1.55253</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>2.9925000000000002</v>
       </c>
@@ -31606,7 +30478,7 @@
         <v>1.5559320000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>2.9954999999999998</v>
       </c>
@@ -31620,7 +30492,7 @@
         <v>1.5568219999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>2.9977</v>
       </c>
@@ -31634,7 +30506,7 @@
         <v>1.555642</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>3</v>
       </c>

--- a/CFRP2本_lap=30/thickness_l30_g2.0.xlsx
+++ b/CFRP2本_lap=30/thickness_l30_g2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay0423\Documents\ansys-management\CFRP2本_lap=30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/CFRP2本_lap=30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203AD6B8-4585-420D-986E-A39377D6C8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1692B-5659-0B4E-A3A3-DD9CC8DDA106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="1185" windowWidth="21555" windowHeight="14730" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6380" yWindow="1820" windowWidth="21560" windowHeight="14740" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,14 @@
     <sheet name="C2_l30_th2.0_g2.0" sheetId="9" r:id="rId9"/>
     <sheet name="グラフ" sheetId="11" r:id="rId10"/>
     <sheet name="まとめ" sheetId="10" r:id="rId11"/>
+    <sheet name="solid186" sheetId="12" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
   <si>
     <t>path</t>
   </si>
@@ -125,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +148,22 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -206,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -214,6 +226,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -11761,6 +11775,761 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solid186!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tensile_strength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>solid186!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>solid186!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.69914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.815020000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.90376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.470300000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.908919999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.128979999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DC79-A046-A008-5896CB160000}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>まとめ!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tensile_strength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>まとめ!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>まとめ!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.69914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.596800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.29814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.216080000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.470300000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.908919999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.895520000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DC79-A046-A008-5896CB160000}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1098321568"/>
+        <c:axId val="1318456064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1098321568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318456064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1318456064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098321568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solid186!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>young's_modulus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>solid186!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>solid186!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2187.6433333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2507.8285575757568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2738.508072727273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3108.4232000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3566.7729333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4083.25115151515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4624.2594666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5424.3530666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3FA-6048-BEA1-55B5980F9980}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1439249152"/>
+        <c:axId val="1176177648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1439249152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1176177648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1176177648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1439249152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -15636,6 +16405,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17223,6 +18032,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -17351,6 +18676,87 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33AD7AC1-DCE1-FE4A-881D-468625B60271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B8202E-CF68-4D41-A93F-43958BC1803E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -18143,135 +19549,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="まとめ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="まとめ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="C2_l10_th0.1_g2.0"/>
-      <sheetName val="C2_l10_th0.25_g2.0"/>
-      <sheetName val="C2_l10_th0.5_g2.0"/>
-      <sheetName val="C2_l10_th0.75_g2.0"/>
-      <sheetName val="C2_l10_th1.0_g2.0"/>
-      <sheetName val="C2_l10_th1.25_g2.0"/>
-      <sheetName val="C2_l10_th1.5_g2.0"/>
-      <sheetName val="C2_l10_th2.0_g2.0"/>
-      <sheetName val="まとめ"/>
-      <sheetName val="グラフ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>tensile_strength</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>0.1</v>
-          </cell>
-          <cell r="C2">
-            <v>14.379659999999999</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.25</v>
-          </cell>
-          <cell r="C3">
-            <v>17.56026</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.5</v>
-          </cell>
-          <cell r="C4">
-            <v>18.606819999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.75</v>
-          </cell>
-          <cell r="C5">
-            <v>18.322320000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>1</v>
-          </cell>
-          <cell r="C6">
-            <v>14.610300000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>1.25</v>
-          </cell>
-          <cell r="C7">
-            <v>14.87806</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>1.5</v>
-          </cell>
-          <cell r="C8">
-            <v>15.282220000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>2</v>
-          </cell>
-          <cell r="C9">
-            <v>15.462400000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -18561,9 +19838,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18589,7 +19866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -18623,7 +19900,7 @@
       <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18635,16 +19912,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -18656,7 +19933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -18670,7 +19947,7 @@
         <v>2187.6433333333339</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -18684,7 +19961,7 @@
         <v>2507.8285575757568</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -18698,7 +19975,7 @@
         <v>2744.4213333333341</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -18712,7 +19989,7 @@
         <v>3110.5579151515099</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -18726,7 +20003,7 @@
         <v>3579.788</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -18740,7 +20017,7 @@
         <v>4083.25115151515</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -18754,7 +20031,7 @@
         <v>4624.2594666666664</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -18766,6 +20043,150 @@
       </c>
       <c r="D9">
         <v>5420.5266424242418</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54608131-6B06-554C-8E06-E300D648608E}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="D2">
+        <v>2187.6433333333339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0.25</v>
+      </c>
+      <c r="C3">
+        <v>17.69914</v>
+      </c>
+      <c r="D3">
+        <v>2507.8285575757568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>13.481</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2738.508072727273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.75</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12.815020000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3108.4232000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>14.90376</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3566.7729333333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>1.25</v>
+      </c>
+      <c r="C7">
+        <v>18.470300000000002</v>
+      </c>
+      <c r="D7">
+        <v>4083.25115151515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
+      <c r="C8">
+        <v>19.908919999999998</v>
+      </c>
+      <c r="D8">
+        <v>4624.2594666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>16.128979999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5424.3530666666666</v>
       </c>
     </row>
   </sheetData>
@@ -18781,9 +20202,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -18803,7 +20224,7 @@
         <v>17.385000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -18823,7 +20244,7 @@
         <v>2187.6433333333339</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -18837,7 +20258,7 @@
         <v>1.0938220000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -18851,7 +20272,7 @@
         <v>1.6407320000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -18865,7 +20286,7 @@
         <v>2.18764</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -18879,7 +20300,7 @@
         <v>2.7345600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -18893,7 +20314,7 @@
         <v>3.28146</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -18907,7 +20328,7 @@
         <v>3.8283800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -18921,7 +20342,7 @@
         <v>4.3752800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -18935,7 +20356,7 @@
         <v>4.9222000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -18949,7 +20370,7 @@
         <v>5.4691000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -18963,7 +20384,7 @@
         <v>6.0159799999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -18977,7 +20398,7 @@
         <v>6.5627999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -18991,7 +20412,7 @@
         <v>7.1095600000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -19005,7 +20426,7 @@
         <v>7.6560400000000008</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -19019,7 +20440,7 @@
         <v>8.20214</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -19033,7 +20454,7 @@
         <v>8.7478400000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -19047,7 +20468,7 @@
         <v>9.2918400000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -19061,7 +20482,7 @@
         <v>9.8187599999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -19075,7 +20496,7 @@
         <v>10.325799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -19089,7 +20510,7 @@
         <v>10.81326</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -19103,7 +20524,7 @@
         <v>11.315440000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -19117,7 +20538,7 @@
         <v>11.75792</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -19131,7 +20552,7 @@
         <v>10.72528</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -19145,7 +20566,7 @@
         <v>8.8707799999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -19159,7 +20580,7 @@
         <v>9.0945599999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -19173,7 +20594,7 @@
         <v>9.4528200000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -19187,7 +20608,7 @@
         <v>9.8129399999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -19201,7 +20622,7 @@
         <v>10.17318</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -19215,7 +20636,7 @@
         <v>10.535819999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -19229,7 +20650,7 @@
         <v>10.89866</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -19243,7 +20664,7 @@
         <v>11.261139999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -19257,7 +20678,7 @@
         <v>11.62382</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -19271,7 +20692,7 @@
         <v>11.9864</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -19285,7 +20706,7 @@
         <v>12.347580000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -19299,7 +20720,7 @@
         <v>12.708679999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -19313,7 +20734,7 @@
         <v>13.070740000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -19327,7 +20748,7 @@
         <v>13.4331</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -19341,7 +20762,7 @@
         <v>13.79528</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -19355,7 +20776,7 @@
         <v>14.15748</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -19369,7 +20790,7 @@
         <v>14.51984</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -19383,7 +20804,7 @@
         <v>14.8825</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -19397,7 +20818,7 @@
         <v>15.245240000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -19411,7 +20832,7 @@
         <v>15.608079999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -19425,7 +20846,7 @@
         <v>15.97082</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -19439,7 +20860,7 @@
         <v>16.333200000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -19453,7 +20874,7 @@
         <v>16.69556</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -19467,7 +20888,7 @@
         <v>17.05612</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -19481,7 +20902,7 @@
         <v>17.385000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -19495,7 +20916,7 @@
         <v>14.15814</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -19509,7 +20930,7 @@
         <v>5.2836600000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -19523,7 +20944,7 @@
         <v>1.235336</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -19537,7 +20958,7 @@
         <v>0.54253399999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -19551,7 +20972,7 @@
         <v>0.39072400000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -19565,7 +20986,7 @@
         <v>0.31174400000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -19579,7 +21000,7 @@
         <v>0.28184999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -19593,7 +21014,7 @@
         <v>0.26185199999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -19607,7 +21028,7 @@
         <v>0.248724</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -19621,7 +21042,7 @@
         <v>0.23840600000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -19635,7 +21056,7 @@
         <v>0.226548</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -19649,7 +21070,7 @@
         <v>0.20810799999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -19663,7 +21084,7 @@
         <v>0.17756160000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -19677,7 +21098,7 @@
         <v>0.14109740000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -19691,7 +21112,7 @@
         <v>8.4456600000000007E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -19705,7 +21126,7 @@
         <v>5.7007000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -19719,7 +21140,7 @@
         <v>4.6218599999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -19733,7 +21154,7 @@
         <v>4.2573199999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -19747,7 +21168,7 @@
         <v>4.3218199999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -19761,7 +21182,7 @@
         <v>4.3863399999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -19775,7 +21196,7 @@
         <v>4.2777200000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -19789,7 +21210,7 @@
         <v>4.1810199999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -19803,7 +21224,7 @@
         <v>1.904732E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -19817,7 +21238,7 @@
         <v>1.931538E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -19831,7 +21252,7 @@
         <v>1.9583639999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -19845,7 +21266,7 @@
         <v>1.9851919999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -19859,7 +21280,7 @@
         <v>2.0120200000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -19873,7 +21294,7 @@
         <v>2.0388400000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -19887,7 +21308,7 @@
         <v>2.0656799999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -19901,7 +21322,7 @@
         <v>2.0924999999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -19915,7 +21336,7 @@
         <v>2.1193199999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -19929,7 +21350,7 @@
         <v>2.1461600000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -19943,7 +21364,7 @@
         <v>2.1729800000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -19957,7 +21378,7 @@
         <v>2.1998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -19971,7 +21392,7 @@
         <v>2.2266399999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -19985,7 +21406,7 @@
         <v>2.2534599999999998E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -19999,7 +21420,7 @@
         <v>2.2802800000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -20013,7 +21434,7 @@
         <v>2.30712E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -20027,7 +21448,7 @@
         <v>2.33394E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -20041,7 +21462,7 @@
         <v>2.3607599999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -20055,7 +21476,7 @@
         <v>2.3876000000000001E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -20069,7 +21490,7 @@
         <v>2.4144200000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -20083,7 +21504,7 @@
         <v>2.4412400000000001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -20097,7 +21518,7 @@
         <v>2.4680799999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -20111,7 +21532,7 @@
         <v>2.4948999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -20125,7 +21546,7 @@
         <v>2.5217199999999999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -20139,7 +21560,7 @@
         <v>2.5485600000000001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -20153,7 +21574,7 @@
         <v>2.57538E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -20167,7 +21588,7 @@
         <v>2.6022E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -20181,7 +21602,7 @@
         <v>2.6290399999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -20195,7 +21616,7 @@
         <v>2.6511799999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>3</v>
       </c>
@@ -20222,9 +21643,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -20244,7 +21665,7 @@
         <v>17.69914</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -20264,7 +21685,7 @@
         <v>2507.8285575757568</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -20278,7 +21699,7 @@
         <v>1.253914</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -20292,7 +21713,7 @@
         <v>1.88087</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -20306,7 +21727,7 @@
         <v>2.5078200000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -20320,7 +21741,7 @@
         <v>3.1347800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -20334,7 +21755,7 @@
         <v>3.7617400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -20348,7 +21769,7 @@
         <v>4.3887</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -20362,7 +21783,7 @@
         <v>5.0156599999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -20376,7 +21797,7 @@
         <v>5.6426199999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -20390,7 +21811,7 @@
         <v>6.2695600000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -20404,7 +21825,7 @@
         <v>6.8965200000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -20418,7 +21839,7 @@
         <v>7.52346</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -20432,7 +21853,7 @@
         <v>8.1503800000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -20446,7 +21867,7 @@
         <v>8.7772199999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -20460,7 +21881,7 @@
         <v>9.4034800000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -20474,7 +21895,7 @@
         <v>10.02872</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -20488,7 +21909,7 @@
         <v>10.6517</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -20502,7 +21923,7 @@
         <v>11.259880000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -20516,7 +21937,7 @@
         <v>11.787739999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -20530,7 +21951,7 @@
         <v>12.311120000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -20544,7 +21965,7 @@
         <v>12.82014</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -20558,7 +21979,7 @@
         <v>13.138859999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -20572,7 +21993,7 @@
         <v>12.60544</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -20586,7 +22007,7 @@
         <v>11.332739999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -20600,7 +22021,7 @@
         <v>10.673539999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -20614,7 +22035,7 @@
         <v>10.63128</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -20628,7 +22049,7 @@
         <v>10.977880000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -20642,7 +22063,7 @@
         <v>11.332879999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -20656,7 +22077,7 @@
         <v>11.708119999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -20670,7 +22091,7 @@
         <v>12.0886</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -20684,7 +22105,7 @@
         <v>12.467000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -20698,7 +22119,7 @@
         <v>12.835660000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -20712,7 +22133,7 @@
         <v>13.16886</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -20726,7 +22147,7 @@
         <v>13.36534</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -20740,7 +22161,7 @@
         <v>13.454079999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -20754,7 +22175,7 @@
         <v>13.76712</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -20768,7 +22189,7 @@
         <v>14.10768</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -20782,7 +22203,7 @@
         <v>14.422499999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -20796,7 +22217,7 @@
         <v>14.77408</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -20810,7 +22231,7 @@
         <v>15.14034</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -20824,7 +22245,7 @@
         <v>15.505000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -20838,7 +22259,7 @@
         <v>15.87942</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -20852,7 +22273,7 @@
         <v>16.254899999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -20866,7 +22287,7 @@
         <v>16.630939999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -20880,7 +22301,7 @@
         <v>17.00676</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -20894,7 +22315,7 @@
         <v>17.379359999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -20908,7 +22329,7 @@
         <v>17.69914</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -20922,7 +22343,7 @@
         <v>16.12172</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -20936,7 +22357,7 @@
         <v>3.6329199999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -20950,7 +22371,7 @@
         <v>0.37092199999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -20964,7 +22385,7 @@
         <v>0.25328200000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -20978,7 +22399,7 @@
         <v>0.20721800000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -20992,7 +22413,7 @@
         <v>0.1772552</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -21006,7 +22427,7 @@
         <v>0.16725380000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -21020,7 +22441,7 @@
         <v>0.16331399999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -21034,7 +22455,7 @@
         <v>0.15753139999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -21048,7 +22469,7 @@
         <v>0.1533226</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -21062,7 +22483,7 @@
         <v>0.151751</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -21076,7 +22497,7 @@
         <v>0.15095059999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -21090,7 +22511,7 @@
         <v>0.1516246</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -21104,7 +22525,7 @@
         <v>0.15092120000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -21118,7 +22539,7 @@
         <v>0.1497744</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -21132,7 +22553,7 @@
         <v>0.14907599999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -21146,7 +22567,7 @@
         <v>0.14857239999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -21160,7 +22581,7 @@
         <v>0.14715320000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -21174,7 +22595,7 @@
         <v>0.14580480000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -21188,7 +22609,7 @@
         <v>0.14427780000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -21202,7 +22623,7 @@
         <v>0.14297480000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -21216,7 +22637,7 @@
         <v>0.14237179999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -21230,7 +22651,7 @@
         <v>0.1429224</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -21244,7 +22665,7 @@
         <v>0.1437358</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -21258,7 +22679,7 @@
         <v>0.141018</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -21272,7 +22693,7 @@
         <v>0.1399436</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -21286,7 +22707,7 @@
         <v>0.1407166</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -21300,7 +22721,7 @@
         <v>0.14102600000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -21314,7 +22735,7 @@
         <v>0.142008</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -21328,7 +22749,7 @@
         <v>0.1424262</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -21342,7 +22763,7 @@
         <v>0.1427612</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -21356,7 +22777,7 @@
         <v>0.14378740000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -21370,7 +22791,7 @@
         <v>0.14418900000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -21384,7 +22805,7 @@
         <v>0.14482719999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -21398,7 +22819,7 @@
         <v>0.14524380000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -21412,7 +22833,7 @@
         <v>0.14614759999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -21426,7 +22847,7 @@
         <v>0.14650940000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -21440,7 +22861,7 @@
         <v>0.14721039999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -21454,7 +22875,7 @@
         <v>0.14809240000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -21468,7 +22889,7 @@
         <v>0.1483476</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -21482,7 +22903,7 @@
         <v>0.1483796</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -21496,7 +22917,7 @@
         <v>0.14821239999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -21510,7 +22931,7 @@
         <v>0.14930679999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -21524,7 +22945,7 @@
         <v>0.14934700000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -21538,7 +22959,7 @@
         <v>0.14872260000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -21552,7 +22973,7 @@
         <v>0.1491024</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -21566,7 +22987,7 @@
         <v>0.14712439999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -21580,7 +23001,7 @@
         <v>0.1470014</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -21594,7 +23015,7 @@
         <v>0.1366848</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -21608,7 +23029,7 @@
         <v>0.1368876</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -21622,7 +23043,7 @@
         <v>0.1353528</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -21636,7 +23057,7 @@
         <v>0.13489200000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>2.9849999999999999</v>
       </c>
@@ -21650,7 +23071,7 @@
         <v>0.1352874</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>2.9925000000000002</v>
       </c>
@@ -21664,7 +23085,7 @@
         <v>0.13525719999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>2.9954999999999998</v>
       </c>
@@ -21678,7 +23099,7 @@
         <v>0.1349378</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>2.9977</v>
       </c>
@@ -21692,7 +23113,7 @@
         <v>0.13359360000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>3</v>
       </c>
@@ -21719,9 +23140,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -21741,7 +23162,7 @@
         <v>18.596800000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -21761,7 +23182,7 @@
         <v>2744.4213333333341</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -21775,7 +23196,7 @@
         <v>1.3722559999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -21789,7 +23210,7 @@
         <v>2.0583800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -21803,7 +23224,7 @@
         <v>2.7445200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -21817,7 +23238,7 @@
         <v>3.4306399999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -21831,7 +23252,7 @@
         <v>4.1167800000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -21845,7 +23266,7 @@
         <v>4.8029000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -21859,7 +23280,7 @@
         <v>5.4889800000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -21873,7 +23294,7 @@
         <v>6.1748400000000014</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -21887,7 +23308,7 @@
         <v>6.8600400000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -21901,7 +23322,7 @@
         <v>7.5434599999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -21915,7 +23336,7 @@
         <v>8.2250800000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -21929,7 +23350,7 @@
         <v>8.9032800000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -21943,7 +23364,7 @@
         <v>9.5790600000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -21957,7 +23378,7 @@
         <v>10.255140000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -21971,7 +23392,7 @@
         <v>10.9259</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -21985,7 +23406,7 @@
         <v>11.583819999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -21999,7 +23420,7 @@
         <v>12.19112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -22013,7 +23434,7 @@
         <v>12.669639999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -22027,7 +23448,7 @@
         <v>13.13226</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -22041,7 +23462,7 @@
         <v>13.533939999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -22055,7 +23476,7 @@
         <v>13.62276</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -22069,7 +23490,7 @@
         <v>12.96998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -22083,7 +23504,7 @@
         <v>12.25956</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -22097,7 +23518,7 @@
         <v>12.07206</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -22111,7 +23532,7 @@
         <v>12.08094</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -22125,7 +23546,7 @@
         <v>12.405720000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -22139,7 +23560,7 @@
         <v>12.819039999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -22153,7 +23574,7 @@
         <v>13.237360000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -22167,7 +23588,7 @@
         <v>13.647959999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -22181,7 +23602,7 @@
         <v>14.02666</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -22195,7 +23616,7 @@
         <v>14.382379999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -22209,7 +23630,7 @@
         <v>14.739979999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -22223,7 +23644,7 @@
         <v>15.068379999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -22237,7 +23658,7 @@
         <v>15.344200000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -22251,7 +23672,7 @@
         <v>15.5703</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -22265,7 +23686,7 @@
         <v>15.281980000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -22279,7 +23700,7 @@
         <v>15.583159999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -22293,7 +23714,7 @@
         <v>15.95566</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -22307,7 +23728,7 @@
         <v>16.342839999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -22321,7 +23742,7 @@
         <v>16.739699999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -22335,7 +23756,7 @@
         <v>17.141380000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -22349,7 +23770,7 @@
         <v>17.544180000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -22363,7 +23784,7 @@
         <v>17.945679999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -22377,7 +23798,7 @@
         <v>18.343160000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -22391,7 +23812,7 @@
         <v>18.596800000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -22405,7 +23826,7 @@
         <v>14.547840000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -22419,7 +23840,7 @@
         <v>6.3506799999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -22433,7 +23854,7 @@
         <v>0.31148999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -22447,7 +23868,7 @@
         <v>0.15604899999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -22461,7 +23882,7 @@
         <v>0.121701</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -22475,7 +23896,7 @@
         <v>0.1031852</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -22489,7 +23910,7 @@
         <v>9.2507800000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -22503,7 +23924,7 @@
         <v>8.6876800000000004E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -22517,7 +23938,7 @@
         <v>8.13392E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -22531,7 +23952,7 @@
         <v>7.7267200000000008E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -22545,7 +23966,7 @@
         <v>7.4076799999999998E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -22559,7 +23980,7 @@
         <v>6.9969799999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -22573,7 +23994,7 @@
         <v>6.6462000000000007E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -22587,7 +24008,7 @@
         <v>6.3842800000000005E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -22601,7 +24022,7 @@
         <v>6.1275400000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -22615,7 +24036,7 @@
         <v>5.8585199999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -22629,7 +24050,7 @@
         <v>5.7272200000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -22643,7 +24064,7 @@
         <v>5.5907799999999987E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -22657,7 +24078,7 @@
         <v>5.4021399999999997E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -22671,7 +24092,7 @@
         <v>5.1172799999999997E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -22685,7 +24106,7 @@
         <v>4.8925200000000002E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -22699,7 +24120,7 @@
         <v>4.7965999999999988E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -22713,7 +24134,7 @@
         <v>4.6186199999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -22727,7 +24148,7 @@
         <v>4.4425399999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -22741,7 +24162,7 @@
         <v>4.3680399999999987E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -22755,7 +24176,7 @@
         <v>4.09162E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -22769,7 +24190,7 @@
         <v>4.0106999999999997E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -22783,7 +24204,7 @@
         <v>3.7288799999999997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -22797,7 +24218,7 @@
         <v>3.3038199999999997E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -22811,7 +24232,7 @@
         <v>3.3231400000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -22825,7 +24246,7 @@
         <v>3.2238000000000003E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -22839,7 +24260,7 @@
         <v>3.1488200000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -22853,7 +24274,7 @@
         <v>3.1891799999999998E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -22867,7 +24288,7 @@
         <v>3.1357799999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -22881,7 +24302,7 @@
         <v>3.1749800000000002E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -22895,7 +24316,7 @@
         <v>3.2141799999999998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -22909,7 +24330,7 @@
         <v>3.2533800000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -22923,7 +24344,7 @@
         <v>3.2925799999999998E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -22937,7 +24358,7 @@
         <v>3.3317800000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -22951,7 +24372,7 @@
         <v>3.3709799999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -22965,7 +24386,7 @@
         <v>3.4101600000000003E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -22979,7 +24400,7 @@
         <v>3.4493599999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -22993,7 +24414,7 @@
         <v>3.4885600000000003E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -23007,7 +24428,7 @@
         <v>3.5277599999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -23021,7 +24442,7 @@
         <v>3.5669600000000003E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -23035,7 +24456,7 @@
         <v>3.6061599999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -23049,7 +24470,7 @@
         <v>3.6453600000000003E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -23063,7 +24484,7 @@
         <v>3.68454E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -23077,7 +24498,7 @@
         <v>3.71574E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -23091,7 +24512,7 @@
         <v>3.7548600000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -23105,7 +24526,7 @@
         <v>3.7939800000000003E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -23119,7 +24540,7 @@
         <v>3.8330799999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -23133,7 +24554,7 @@
         <v>3.8721999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>3</v>
       </c>
@@ -23160,9 +24581,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -23182,7 +24603,7 @@
         <v>19.29814</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -23202,7 +24623,7 @@
         <v>3110.5579151515149</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -23216,7 +24637,7 @@
         <v>1.5575639999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -23230,7 +24651,7 @@
         <v>2.3363399999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -23244,7 +24665,7 @@
         <v>3.1151200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -23258,7 +24679,7 @@
         <v>3.8938999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -23272,7 +24693,7 @@
         <v>4.6725000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -23286,7 +24707,7 @@
         <v>5.4504400000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -23300,7 +24721,7 @@
         <v>6.2277399999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -23314,7 +24735,7 @@
         <v>7.0026999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -23328,7 +24749,7 @@
         <v>7.7735599999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -23342,7 +24763,7 @@
         <v>8.5365800000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -23356,7 +24777,7 @@
         <v>9.2972400000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -23370,7 +24791,7 @@
         <v>10.05734</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -23384,7 +24805,7 @@
         <v>10.80706</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -23398,7 +24819,7 @@
         <v>11.55364</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -23412,7 +24833,7 @@
         <v>12.27394</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -23426,7 +24847,7 @@
         <v>12.92998</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -23440,7 +24861,7 @@
         <v>13.50004</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -23454,7 +24875,7 @@
         <v>13.988200000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -23468,7 +24889,7 @@
         <v>14.39616</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -23482,7 +24903,7 @@
         <v>14.25536</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -23496,7 +24917,7 @@
         <v>13.62082</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -23510,7 +24931,7 @@
         <v>13.46616</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -23524,7 +24945,7 @@
         <v>13.696680000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -23538,7 +24959,7 @@
         <v>14.00666</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -23552,7 +24973,7 @@
         <v>14.26712</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -23566,7 +24987,7 @@
         <v>14.51848</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -23580,7 +25001,7 @@
         <v>14.763820000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -23594,7 +25015,7 @@
         <v>15.125579999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -23608,7 +25029,7 @@
         <v>15.520379999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -23622,7 +25043,7 @@
         <v>15.89958</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -23636,7 +25057,7 @@
         <v>15.638960000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -23650,7 +25071,7 @@
         <v>14.790100000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -23664,7 +25085,7 @@
         <v>15.096500000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -23678,7 +25099,7 @@
         <v>15.46848</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -23692,7 +25113,7 @@
         <v>15.8748</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -23706,7 +25127,7 @@
         <v>16.299859999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -23720,7 +25141,7 @@
         <v>16.729399999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -23734,7 +25155,7 @@
         <v>17.161000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -23748,7 +25169,7 @@
         <v>17.59216</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -23762,7 +25183,7 @@
         <v>18.023440000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -23776,7 +25197,7 @@
         <v>18.45552</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -23790,7 +25211,7 @@
         <v>18.886060000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -23804,7 +25225,7 @@
         <v>19.29814</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -23818,7 +25239,7 @@
         <v>19.293520000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -23832,7 +25253,7 @@
         <v>12.1717</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -23846,7 +25267,7 @@
         <v>6.3030399999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -23860,7 +25281,7 @@
         <v>4.33216</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -23874,7 +25295,7 @@
         <v>2.4897999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -23888,7 +25309,7 @@
         <v>1.2629319999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -23902,7 +25323,7 @@
         <v>0.96037000000000006</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -23916,7 +25337,7 @@
         <v>0.85206999999999988</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -23930,7 +25351,7 @@
         <v>0.77560799999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -23944,7 +25365,7 @@
         <v>0.69483800000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -23958,7 +25379,7 @@
         <v>0.63793999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -23972,7 +25393,7 @@
         <v>0.57904800000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -23986,7 +25407,7 @@
         <v>0.54971400000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -24000,7 +25421,7 @@
         <v>0.53478400000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -24014,7 +25435,7 @@
         <v>0.50268000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -24028,7 +25449,7 @@
         <v>0.48420200000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -24042,7 +25463,7 @@
         <v>0.47270200000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -24056,7 +25477,7 @@
         <v>0.45810400000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -24070,7 +25491,7 @@
         <v>0.42392400000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -24084,7 +25505,7 @@
         <v>0.39871000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -24098,7 +25519,7 @@
         <v>0.39185399999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -24112,7 +25533,7 @@
         <v>0.36951800000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -24126,7 +25547,7 @@
         <v>0.36957400000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -24140,7 +25561,7 @@
         <v>0.34783399999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -24154,7 +25575,7 @@
         <v>0.34783999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -24168,7 +25589,7 @@
         <v>0.35037200000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -24182,7 +25603,7 @@
         <v>0.34633399999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -24196,7 +25617,7 @@
         <v>0.349244</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -24210,7 +25631,7 @@
         <v>0.34871799999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -24224,7 +25645,7 @@
         <v>0.34504600000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -24238,7 +25659,7 @@
         <v>0.34536600000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -24252,7 +25673,7 @@
         <v>0.348636</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -24266,7 +25687,7 @@
         <v>0.351244</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -24280,7 +25701,7 @@
         <v>0.35436800000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -24294,7 +25715,7 @@
         <v>0.35776200000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -24308,7 +25729,7 @@
         <v>0.36109999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -24322,7 +25743,7 @@
         <v>0.32883600000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -24336,7 +25757,7 @@
         <v>0.30523600000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -24350,7 +25771,7 @@
         <v>0.306228</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -24364,7 +25785,7 @@
         <v>0.30730400000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -24378,7 +25799,7 @@
         <v>0.30992199999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -24392,7 +25813,7 @@
         <v>0.312834</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -24406,7 +25827,7 @@
         <v>0.31558599999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -24420,7 +25841,7 @@
         <v>0.31785200000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -24434,7 +25855,7 @@
         <v>0.32080799999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -24448,7 +25869,7 @@
         <v>0.32357599999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -24462,7 +25883,7 @@
         <v>0.325098</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -24476,7 +25897,7 @@
         <v>0.327374</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -24490,7 +25911,7 @@
         <v>0.3296</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -24504,7 +25925,7 @@
         <v>0.33239999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -24518,7 +25939,7 @@
         <v>0.33540999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -24532,7 +25953,7 @@
         <v>0.33827200000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -24546,7 +25967,7 @@
         <v>0.34066200000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -24560,7 +25981,7 @@
         <v>0.31636799999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -24574,7 +25995,7 @@
         <v>0.30996600000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>2.9849999999999999</v>
       </c>
@@ -24588,7 +26009,7 @@
         <v>0.310778</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>2.9925000000000002</v>
       </c>
@@ -24602,7 +26023,7 @@
         <v>0.31059199999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>2.9954999999999998</v>
       </c>
@@ -24616,7 +26037,7 @@
         <v>0.30988399999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>2.9977</v>
       </c>
@@ -24630,7 +26051,7 @@
         <v>0.30769999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>3</v>
       </c>
@@ -24657,9 +26078,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -24679,7 +26100,7 @@
         <v>17.216080000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -24699,7 +26120,7 @@
         <v>3579.788</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -24713,7 +26134,7 @@
         <v>1.7943359999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -24727,7 +26148,7 @@
         <v>2.6915</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -24741,7 +26162,7 @@
         <v>3.5886800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -24755,7 +26176,7 @@
         <v>4.4858399999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -24769,7 +26190,7 @@
         <v>5.3822200000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -24783,7 +26204,7 @@
         <v>6.2767999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -24797,7 +26218,7 @@
         <v>7.1668399999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -24811,7 +26232,7 @@
         <v>8.0509599999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -24825,7 +26246,7 @@
         <v>8.9213199999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -24839,7 +26260,7 @@
         <v>9.7838999999999992</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -24853,7 +26274,7 @@
         <v>10.64148</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -24867,7 +26288,7 @@
         <v>11.487399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -24881,7 +26302,7 @@
         <v>12.31302</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -24895,7 +26316,7 @@
         <v>13.0793</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -24909,7 +26330,7 @@
         <v>13.76962</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -24923,7 +26344,7 @@
         <v>14.42746</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -24937,7 +26358,7 @@
         <v>14.877879999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -24951,7 +26372,7 @@
         <v>14.915279999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -24965,7 +26386,7 @@
         <v>14.59676</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -24979,7 +26400,7 @@
         <v>14.59506</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -24993,7 +26414,7 @@
         <v>14.94144</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -25007,7 +26428,7 @@
         <v>15.38214</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -25021,7 +26442,7 @@
         <v>15.8322</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -25035,7 +26456,7 @@
         <v>16.270160000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -25049,7 +26470,7 @@
         <v>16.71246</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -25063,7 +26484,7 @@
         <v>17.10098</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -25077,7 +26498,7 @@
         <v>17.216080000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -25091,7 +26512,7 @@
         <v>16.7257</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -25105,7 +26526,7 @@
         <v>16.406320000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -25119,7 +26540,7 @@
         <v>15.731999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -25133,7 +26554,7 @@
         <v>14.388999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -25147,7 +26568,7 @@
         <v>10.730259999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -25161,7 +26582,7 @@
         <v>9.4945799999999991</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -25175,7 +26596,7 @@
         <v>8.5198599999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -25189,7 +26610,7 @@
         <v>3.81806</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -25203,7 +26624,7 @@
         <v>1.0645180000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -25217,7 +26638,7 @@
         <v>0.73232200000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -25231,7 +26652,7 @@
         <v>0.63046599999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -25245,7 +26666,7 @@
         <v>0.54793000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -25259,7 +26680,7 @@
         <v>0.507324</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -25273,7 +26694,7 @@
         <v>0.49362400000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -25287,7 +26708,7 @@
         <v>0.48382799999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -25301,7 +26722,7 @@
         <v>0.47311799999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -25315,7 +26736,7 @@
         <v>0.47169199999999989</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -25329,7 +26750,7 @@
         <v>0.46750399999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -25343,7 +26764,7 @@
         <v>0.45841399999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -25357,7 +26778,7 @@
         <v>0.46188600000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -25371,7 +26792,7 @@
         <v>0.46499600000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -25385,7 +26806,7 @@
         <v>0.46656799999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -25399,7 +26820,7 @@
         <v>0.45972600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -25413,7 +26834,7 @@
         <v>0.42160199999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -25427,7 +26848,7 @@
         <v>0.42972399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -25441,7 +26862,7 @@
         <v>0.43780999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -25455,7 +26876,7 @@
         <v>0.44589400000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -25469,7 +26890,7 @@
         <v>0.453984</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -25483,7 +26904,7 @@
         <v>0.46209000000000011</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -25497,7 +26918,7 @@
         <v>0.47018399999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -25511,7 +26932,7 @@
         <v>0.47824</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -25525,7 +26946,7 @@
         <v>0.48631400000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -25539,7 +26960,7 @@
         <v>0.49435800000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -25553,7 +26974,7 @@
         <v>0.50235600000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -25567,7 +26988,7 @@
         <v>0.51039999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -25581,7 +27002,7 @@
         <v>0.51819999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -25595,7 +27016,7 @@
         <v>0.52629800000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -25609,7 +27030,7 @@
         <v>0.53425199999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -25623,7 +27044,7 @@
         <v>0.54217000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -25637,7 +27058,7 @@
         <v>0.55022599999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -25651,7 +27072,7 @@
         <v>0.55830199999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -25665,7 +27086,7 @@
         <v>0.494672</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -25679,7 +27100,7 @@
         <v>0.50166200000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -25693,7 +27114,7 @@
         <v>0.50860399999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -25707,7 +27128,7 @@
         <v>0.51566800000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -25721,7 +27142,7 @@
         <v>0.52273199999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -25735,7 +27156,7 @@
         <v>0.52979599999999993</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -25749,7 +27170,7 @@
         <v>0.53686</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -25763,7 +27184,7 @@
         <v>0.54388000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -25777,7 +27198,7 @@
         <v>0.55088000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -25791,7 +27212,7 @@
         <v>0.55788800000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -25805,7 +27226,7 @@
         <v>0.56494999999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -25819,7 +27240,7 @@
         <v>0.57201199999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -25833,7 +27254,7 @@
         <v>0.57907399999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -25847,7 +27268,7 @@
         <v>0.58596199999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -25861,7 +27282,7 @@
         <v>0.59298799999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -25875,7 +27296,7 @@
         <v>0.59999199999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -25889,7 +27310,7 @@
         <v>0.60705199999999992</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -25903,7 +27324,7 @@
         <v>0.61405399999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -25917,7 +27338,7 @@
         <v>0.62109599999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -25931,7 +27352,7 @@
         <v>0.62808999999999993</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -25945,7 +27366,7 @@
         <v>0.44756800000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -25959,7 +27380,7 @@
         <v>0.44764199999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -25973,7 +27394,7 @@
         <v>0.45256000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -25987,7 +27408,7 @@
         <v>0.45748</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -26001,7 +27422,7 @@
         <v>0.46239799999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -26015,7 +27436,7 @@
         <v>0.46731800000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -26029,7 +27450,7 @@
         <v>0.47221999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -26043,7 +27464,7 @@
         <v>0.47713800000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -26057,7 +27478,7 @@
         <v>0.48205799999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -26071,7 +27492,7 @@
         <v>0.48697600000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>3</v>
       </c>
@@ -26098,9 +27519,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -26120,7 +27541,7 @@
         <v>18.470300000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -26140,7 +27561,7 @@
         <v>4083.25115151515</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -26154,7 +27575,7 @@
         <v>2.05938</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -26168,7 +27589,7 @@
         <v>3.08908</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -26182,7 +27603,7 @@
         <v>4.11876</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -26196,7 +27617,7 @@
         <v>5.1482600000000014</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -26210,7 +27631,7 @@
         <v>6.1759400000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -26224,7 +27645,7 @@
         <v>7.1992399999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -26238,7 +27659,7 @@
         <v>8.2152399999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -26252,7 +27673,7 @@
         <v>9.2129799999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -26266,7 +27687,7 @@
         <v>10.191800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -26280,7 +27701,7 @@
         <v>11.159979999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -26294,7 +27715,7 @@
         <v>12.09928</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -26308,7 +27729,7 @@
         <v>12.99432</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -26322,7 +27743,7 @@
         <v>13.8248</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -26336,7 +27757,7 @@
         <v>14.613020000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -26350,7 +27771,7 @@
         <v>15.204079999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -26364,7 +27785,7 @@
         <v>15.371259999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -26378,7 +27799,7 @@
         <v>15.4443</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -26392,7 +27813,7 @@
         <v>15.57742</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -26406,7 +27827,7 @@
         <v>15.866059999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -26420,7 +27841,7 @@
         <v>16.26388</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -26434,7 +27855,7 @@
         <v>16.77458</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -26448,7 +27869,7 @@
         <v>17.300920000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -26462,7 +27883,7 @@
         <v>17.852419999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -26476,7 +27897,7 @@
         <v>18.31184</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -26490,7 +27911,7 @@
         <v>18.470300000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -26504,7 +27925,7 @@
         <v>18.43892</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -26518,7 +27939,7 @@
         <v>17.418199999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -26532,7 +27953,7 @@
         <v>7.2670399999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -26546,7 +27967,7 @@
         <v>6.8039399999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -26560,7 +27981,7 @@
         <v>6.8737199999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -26574,7 +27995,7 @@
         <v>7.0257000000000014</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -26588,7 +28009,7 @@
         <v>7.1961599999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -26602,7 +28023,7 @@
         <v>7.38462</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -26616,7 +28037,7 @@
         <v>7.5850999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -26630,7 +28051,7 @@
         <v>7.7889799999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -26644,7 +28065,7 @@
         <v>7.9959400000000009</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -26658,7 +28079,7 @@
         <v>8.2030200000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -26672,7 +28093,7 @@
         <v>8.4086999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -26686,7 +28107,7 @@
         <v>8.6074199999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -26700,7 +28121,7 @@
         <v>8.7984400000000011</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -26714,7 +28135,7 @@
         <v>8.9940800000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -26728,7 +28149,7 @@
         <v>9.1873400000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -26742,7 +28163,7 @@
         <v>9.376100000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -26756,7 +28177,7 @@
         <v>9.5589200000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -26770,7 +28191,7 @@
         <v>9.7461000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -26784,7 +28205,7 @@
         <v>9.9282799999999991</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -26798,7 +28219,7 @@
         <v>10.109</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -26812,7 +28233,7 @@
         <v>10.292759999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -26826,7 +28247,7 @@
         <v>10.470980000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -26840,7 +28261,7 @@
         <v>10.642440000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -26854,7 +28275,7 @@
         <v>10.80298</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -26868,7 +28289,7 @@
         <v>10.94528</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -26882,7 +28303,7 @@
         <v>11.071859999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -26896,7 +28317,7 @@
         <v>11.20116</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -26910,7 +28331,7 @@
         <v>11.31908</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -26924,7 +28345,7 @@
         <v>11.41456</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -26938,7 +28359,7 @@
         <v>11.500540000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -26952,7 +28373,7 @@
         <v>11.582179999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -26966,7 +28387,7 @@
         <v>11.64878</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -26980,7 +28401,7 @@
         <v>11.73612</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -26994,7 +28415,7 @@
         <v>11.81034</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -27008,7 +28429,7 @@
         <v>11.893520000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -27022,7 +28443,7 @@
         <v>12.003959999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -27036,7 +28457,7 @@
         <v>12.1205</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -27050,7 +28471,7 @@
         <v>12.2254</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -27064,7 +28485,7 @@
         <v>12.32108</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -27078,7 +28499,7 @@
         <v>12.39972</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -27092,7 +28513,7 @@
         <v>12.47312</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -27106,7 +28527,7 @@
         <v>12.55566</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -27120,7 +28541,7 @@
         <v>12.61534</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -27134,7 +28555,7 @@
         <v>12.62194</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -27148,7 +28569,7 @@
         <v>12.63884</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -27162,7 +28583,7 @@
         <v>12.65386</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -27176,7 +28597,7 @@
         <v>12.6342</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -27190,7 +28611,7 @@
         <v>12.49784</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -27204,7 +28625,7 @@
         <v>12.3055</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -27218,7 +28639,7 @@
         <v>12.008279999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -27232,7 +28653,7 @@
         <v>11.57746</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -27246,7 +28667,7 @@
         <v>10.603160000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -27260,7 +28681,7 @@
         <v>9.6376200000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -27274,7 +28695,7 @@
         <v>8.5107400000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -27288,7 +28709,7 @@
         <v>7.4386999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -27302,7 +28723,7 @@
         <v>6.5702599999999993</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -27316,7 +28737,7 @@
         <v>5.6271000000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -27330,7 +28751,7 @@
         <v>5.1145999999999994</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -27344,7 +28765,7 @@
         <v>4.5065200000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -27358,7 +28779,7 @@
         <v>3.7168999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -27372,7 +28793,7 @@
         <v>3.3816000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -27386,7 +28807,7 @@
         <v>3.1586400000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -27400,7 +28821,7 @@
         <v>2.94224</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -27414,7 +28835,7 @@
         <v>2.06386</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -27428,7 +28849,7 @@
         <v>1.679076</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -27442,7 +28863,7 @@
         <v>1.5109399999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -27456,7 +28877,7 @@
         <v>1.2379020000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -27470,7 +28891,7 @@
         <v>1.0284180000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -27484,7 +28905,7 @@
         <v>0.95140400000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -27498,7 +28919,7 @@
         <v>0.95691400000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -27512,7 +28933,7 @@
         <v>0.96193399999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>2.9849999999999999</v>
       </c>
@@ -27526,7 +28947,7 @@
         <v>0.96513800000000005</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>2.9925000000000002</v>
       </c>
@@ -27540,7 +28961,7 @@
         <v>0.96526600000000007</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>2.9954999999999998</v>
       </c>
@@ -27554,7 +28975,7 @@
         <v>0.96289400000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>2.9977</v>
       </c>
@@ -27568,7 +28989,7 @@
         <v>0.93324200000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>3</v>
       </c>
@@ -27595,9 +29016,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -27617,7 +29038,7 @@
         <v>19.908919999999998</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -27637,7 +29058,7 @@
         <v>4624.2594666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -27651,7 +29072,7 @@
         <v>2.3290999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -27665,7 +29086,7 @@
         <v>3.4936600000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -27679,7 +29100,7 @@
         <v>4.6581999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -27693,7 +29114,7 @@
         <v>5.8226199999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -27707,7 +29128,7 @@
         <v>6.9850400000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -27721,7 +29142,7 @@
         <v>8.1388599999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -27735,7 +29156,7 @@
         <v>9.2794399999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -27749,7 +29170,7 @@
         <v>10.38846</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -27763,7 +29184,7 @@
         <v>11.46218</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -27777,7 +29198,7 @@
         <v>12.491759999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -27791,7 +29212,7 @@
         <v>13.483000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -27805,7 +29226,7 @@
         <v>14.428979999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -27819,7 +29240,7 @@
         <v>15.222899999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -27833,7 +29254,7 @@
         <v>15.596080000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -27847,7 +29268,7 @@
         <v>15.772360000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -27861,7 +29282,7 @@
         <v>15.94224</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -27875,7 +29296,7 @@
         <v>16.333220000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -27889,7 +29310,7 @@
         <v>16.84618</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -27903,7 +29324,7 @@
         <v>17.40194</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -27917,7 +29338,7 @@
         <v>17.95552</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -27931,7 +29352,7 @@
         <v>18.528040000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -27945,7 +29366,7 @@
         <v>19.1172</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -27959,7 +29380,7 @@
         <v>19.669219999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -27973,7 +29394,7 @@
         <v>19.890059999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -27987,7 +29408,7 @@
         <v>19.908919999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -28001,7 +29422,7 @@
         <v>18.201820000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -28015,7 +29436,7 @@
         <v>7.9101199999999992</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -28029,7 +29450,7 @@
         <v>7.6866600000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -28043,7 +29464,7 @@
         <v>7.7703800000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -28057,7 +29478,7 @@
         <v>7.8850800000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -28071,7 +29492,7 @@
         <v>7.9866600000000014</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -28085,7 +29506,7 @@
         <v>8.0111000000000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -28099,7 +29520,7 @@
         <v>7.9460000000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -28113,7 +29534,7 @@
         <v>7.99092</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -28127,7 +29548,7 @@
         <v>8.0934400000000011</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -28141,7 +29562,7 @@
         <v>8.2357399999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -28155,7 +29576,7 @@
         <v>8.3641799999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -28169,7 +29590,7 @@
         <v>8.4947199999999992</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -28183,7 +29604,7 @@
         <v>8.6203800000000008</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -28197,7 +29618,7 @@
         <v>8.706900000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -28211,7 +29632,7 @@
         <v>8.5653399999999991</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -28225,7 +29646,7 @@
         <v>7.4159600000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -28239,7 +29660,7 @@
         <v>6.6564800000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -28253,7 +29674,7 @@
         <v>6.2216200000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -28267,7 +29688,7 @@
         <v>4.3428599999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -28281,7 +29702,7 @@
         <v>2.0719400000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -28295,7 +29716,7 @@
         <v>1.3444020000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -28309,7 +29730,7 @@
         <v>0.8704900000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -28323,7 +29744,7 @@
         <v>0.72267999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -28337,7 +29758,7 @@
         <v>0.68502399999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -28351,7 +29772,7 @@
         <v>0.65549400000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -28365,7 +29786,7 @@
         <v>0.63806800000000008</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -28379,7 +29800,7 @@
         <v>0.65010800000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -28393,7 +29814,7 @@
         <v>0.66214600000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -28407,7 +29828,7 @@
         <v>0.67418599999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -28421,7 +29842,7 @@
         <v>0.68622399999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -28435,7 +29856,7 @@
         <v>0.69764399999999993</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -28449,7 +29870,7 @@
         <v>0.70722200000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -28463,7 +29884,7 @@
         <v>0.71909400000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -28477,7 +29898,7 @@
         <v>0.73089599999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -28491,7 +29912,7 @@
         <v>0.74280199999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -28505,7 +29926,7 @@
         <v>0.75478200000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -28519,7 +29940,7 @@
         <v>0.76676199999999994</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -28533,7 +29954,7 @@
         <v>0.77874399999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -28547,7 +29968,7 @@
         <v>0.79053399999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -28561,7 +29982,7 @@
         <v>0.802512</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -28575,7 +29996,7 @@
         <v>0.81448999999999994</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -28589,7 +30010,7 @@
         <v>0.82646799999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -28603,7 +30024,7 @@
         <v>0.83844399999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -28617,7 +30038,7 @@
         <v>0.8504219999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -28631,7 +30052,7 @@
         <v>0.86239999999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -28645,7 +30066,7 @@
         <v>0.75309999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -28659,7 +30080,7 @@
         <v>0.76011200000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -28673,7 +30094,7 @@
         <v>0.7702119999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -28687,7 +30108,7 @@
         <v>0.7804819999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -28701,7 +30122,7 @@
         <v>0.79075000000000006</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -28715,7 +30136,7 @@
         <v>0.80102000000000007</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -28729,7 +30150,7 @@
         <v>0.81129000000000007</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -28743,7 +30164,7 @@
         <v>0.82155800000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -28757,7 +30178,7 @@
         <v>0.83180599999999993</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -28771,7 +30192,7 @@
         <v>0.84074599999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -28785,7 +30206,7 @@
         <v>0.85078799999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -28799,7 +30220,7 @@
         <v>0.86090599999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -28813,7 +30234,7 @@
         <v>0.87102599999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -28827,7 +30248,7 @@
         <v>0.88124999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -28841,7 +30262,7 @@
         <v>0.8914700000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -28855,7 +30276,7 @@
         <v>0.90170400000000006</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -28869,7 +30290,7 @@
         <v>0.91190399999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -28883,7 +30304,7 @@
         <v>0.92207800000000006</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -28897,7 +30318,7 @@
         <v>0.93220200000000009</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -28911,7 +30332,7 @@
         <v>0.94219800000000009</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -28925,7 +30346,7 @@
         <v>0.952102</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -28939,7 +30360,7 @@
         <v>0.9116200000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -28953,7 +30374,7 @@
         <v>0.92112399999999994</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -28967,7 +30388,7 @@
         <v>0.92581999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -28981,7 +30402,7 @@
         <v>0.92357</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -28995,7 +30416,7 @@
         <v>0.93258600000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -29009,7 +30430,7 @@
         <v>0.93905400000000006</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>3</v>
       </c>
@@ -29036,9 +30457,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -29058,7 +30479,7 @@
         <v>17.895520000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.03</v>
       </c>
@@ -29078,7 +30499,7 @@
         <v>5420.5266424242418</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -29092,7 +30513,7 @@
         <v>2.79616</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.09</v>
       </c>
@@ -29106,7 +30527,7 @@
         <v>4.1942599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -29120,7 +30541,7 @@
         <v>5.5923400000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.15</v>
       </c>
@@ -29134,7 +30555,7 @@
         <v>6.9901</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.18</v>
       </c>
@@ -29148,7 +30569,7 @@
         <v>8.3823600000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.21</v>
       </c>
@@ -29162,7 +30583,7 @@
         <v>9.7389399999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -29176,7 +30597,7 @@
         <v>11.05006</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.27</v>
       </c>
@@ -29190,7 +30611,7 @@
         <v>12.305960000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -29204,7 +30625,7 @@
         <v>13.499980000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>0.33</v>
       </c>
@@ -29218,7 +30639,7 @@
         <v>14.65408</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>0.36</v>
       </c>
@@ -29232,7 +30653,7 @@
         <v>15.362740000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -29246,7 +30667,7 @@
         <v>15.85008</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>0.42</v>
       </c>
@@ -29260,7 +30681,7 @@
         <v>16.118839999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>0.45</v>
       </c>
@@ -29274,7 +30695,7 @@
         <v>16.560739999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>0.48</v>
       </c>
@@ -29288,7 +30709,7 @@
         <v>17.084820000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>0.51</v>
       </c>
@@ -29302,7 +30723,7 @@
         <v>17.602599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>0.54</v>
       </c>
@@ -29316,7 +30737,7 @@
         <v>17.895520000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>0.56999999999999995</v>
       </c>
@@ -29330,7 +30751,7 @@
         <v>17.37378</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -29344,7 +30765,7 @@
         <v>15.908239999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>0.63</v>
       </c>
@@ -29358,7 +30779,7 @@
         <v>15.09698</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>0.66</v>
       </c>
@@ -29372,7 +30793,7 @@
         <v>12.97466</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>0.69</v>
       </c>
@@ -29386,7 +30807,7 @@
         <v>7.9762400000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>0.72</v>
       </c>
@@ -29400,7 +30821,7 @@
         <v>5.0120800000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>0.75</v>
       </c>
@@ -29414,7 +30835,7 @@
         <v>4.4060800000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>0.78</v>
       </c>
@@ -29428,7 +30849,7 @@
         <v>3.8571399999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>0.81</v>
       </c>
@@ -29442,7 +30863,7 @@
         <v>3.2166600000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>0.84</v>
       </c>
@@ -29456,7 +30877,7 @@
         <v>2.9028800000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>0.87</v>
       </c>
@@ -29470,7 +30891,7 @@
         <v>2.7570800000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -29484,7 +30905,7 @@
         <v>2.6838199999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>0.93</v>
       </c>
@@ -29498,7 +30919,7 @@
         <v>2.6495799999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>0.96</v>
       </c>
@@ -29512,7 +30933,7 @@
         <v>2.6324800000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>0.99</v>
       </c>
@@ -29526,7 +30947,7 @@
         <v>2.6384400000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1.02</v>
       </c>
@@ -29540,7 +30961,7 @@
         <v>2.6558600000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1.05</v>
       </c>
@@ -29554,7 +30975,7 @@
         <v>2.6951999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1.08</v>
       </c>
@@ -29568,7 +30989,7 @@
         <v>2.73176</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>1.1100000000000001</v>
       </c>
@@ -29582,7 +31003,7 @@
         <v>2.7718400000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1.1399999999999999</v>
       </c>
@@ -29596,7 +31017,7 @@
         <v>2.81304</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>1.17</v>
       </c>
@@ -29610,7 +31031,7 @@
         <v>2.85928</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>1.2</v>
       </c>
@@ -29624,7 +31045,7 @@
         <v>2.9011999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>1.23</v>
       </c>
@@ -29638,7 +31059,7 @@
         <v>2.9156399999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>1.26</v>
       </c>
@@ -29652,7 +31073,7 @@
         <v>2.8775400000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>1.29</v>
       </c>
@@ -29666,7 +31087,7 @@
         <v>2.8477999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>1.32</v>
       </c>
@@ -29680,7 +31101,7 @@
         <v>2.8397800000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>1.35</v>
       </c>
@@ -29694,7 +31115,7 @@
         <v>2.8464200000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>1.38</v>
       </c>
@@ -29708,7 +31129,7 @@
         <v>2.8712800000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>1.41</v>
       </c>
@@ -29722,7 +31143,7 @@
         <v>2.8945400000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>1.44</v>
       </c>
@@ -29736,7 +31157,7 @@
         <v>2.9037000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>1.47</v>
       </c>
@@ -29750,7 +31171,7 @@
         <v>2.7070400000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -29764,7 +31185,7 @@
         <v>2.7083599999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>1.53</v>
       </c>
@@ -29778,7 +31199,7 @@
         <v>2.73706</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>1.56</v>
       </c>
@@ -29792,7 +31213,7 @@
         <v>2.77894</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>1.59</v>
       </c>
@@ -29806,7 +31227,7 @@
         <v>2.8232200000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>1.62</v>
       </c>
@@ -29820,7 +31241,7 @@
         <v>2.8687</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>1.65</v>
       </c>
@@ -29834,7 +31255,7 @@
         <v>2.91188</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>1.68</v>
       </c>
@@ -29848,7 +31269,7 @@
         <v>2.9529200000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -29862,7 +31283,7 @@
         <v>2.9938799999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>1.74</v>
       </c>
@@ -29876,7 +31297,7 @@
         <v>3.0385</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>1.77</v>
       </c>
@@ -29890,7 +31311,7 @@
         <v>3.0842000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>1.8</v>
       </c>
@@ -29904,7 +31325,7 @@
         <v>3.1246</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>1.83</v>
       </c>
@@ -29918,7 +31339,7 @@
         <v>3.1697199999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>1.86</v>
       </c>
@@ -29932,7 +31353,7 @@
         <v>3.2093400000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>1.89</v>
       </c>
@@ -29946,7 +31367,7 @@
         <v>3.2534999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>1.92</v>
       </c>
@@ -29960,7 +31381,7 @@
         <v>3.29576</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>1.95</v>
       </c>
@@ -29974,7 +31395,7 @@
         <v>3.3347000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>1.98</v>
       </c>
@@ -29988,7 +31409,7 @@
         <v>3.3751000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>2.0099999999999998</v>
       </c>
@@ -30002,7 +31423,7 @@
         <v>3.4162400000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>2.04</v>
       </c>
@@ -30016,7 +31437,7 @@
         <v>3.4468800000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>2.0699999999999998</v>
       </c>
@@ -30030,7 +31451,7 @@
         <v>3.4720599999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>2.1</v>
       </c>
@@ -30044,7 +31465,7 @@
         <v>3.4946199999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>2.13</v>
       </c>
@@ -30058,7 +31479,7 @@
         <v>3.5004200000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>2.16</v>
       </c>
@@ -30072,7 +31493,7 @@
         <v>3.5259200000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>2.19</v>
       </c>
@@ -30086,7 +31507,7 @@
         <v>3.5417800000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>2.2200000000000002</v>
       </c>
@@ -30100,7 +31521,7 @@
         <v>3.5667599999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>2.25</v>
       </c>
@@ -30114,7 +31535,7 @@
         <v>3.6010800000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>2.2799999999999998</v>
       </c>
@@ -30128,7 +31549,7 @@
         <v>3.6380400000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>2.31</v>
       </c>
@@ -30142,7 +31563,7 @@
         <v>3.6728200000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>2.34</v>
       </c>
@@ -30156,7 +31577,7 @@
         <v>3.7044999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>2.37</v>
       </c>
@@ -30170,7 +31591,7 @@
         <v>3.73746</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>2.4</v>
       </c>
@@ -30184,7 +31605,7 @@
         <v>3.7688600000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>2.4300000000000002</v>
       </c>
@@ -30198,7 +31619,7 @@
         <v>3.7924600000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>2.46</v>
       </c>
@@ -30212,7 +31633,7 @@
         <v>3.8144</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>2.4900000000000002</v>
       </c>
@@ -30226,7 +31647,7 @@
         <v>3.8022399999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>2.52</v>
       </c>
@@ -30240,7 +31661,7 @@
         <v>3.7779199999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>2.5499999999999998</v>
       </c>
@@ -30254,7 +31675,7 @@
         <v>3.6715200000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>2.58</v>
       </c>
@@ -30268,7 +31689,7 @@
         <v>3.42448</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>2.61</v>
       </c>
@@ -30282,7 +31703,7 @@
         <v>2.92578</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>2.64</v>
       </c>
@@ -30296,7 +31717,7 @@
         <v>2.3677800000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>2.67</v>
       </c>
@@ -30310,7 +31731,7 @@
         <v>1.9834240000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>2.7</v>
       </c>
@@ -30324,7 +31745,7 @@
         <v>1.648066</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>2.73</v>
       </c>
@@ -30338,7 +31759,7 @@
         <v>1.444118</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>2.76</v>
       </c>
@@ -30352,7 +31773,7 @@
         <v>1.45136</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>2.79</v>
       </c>
@@ -30366,7 +31787,7 @@
         <v>1.455354</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>2.82</v>
       </c>
@@ -30380,7 +31801,7 @@
         <v>1.4705680000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>2.85</v>
       </c>
@@ -30394,7 +31815,7 @@
         <v>1.4861979999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>2.88</v>
       </c>
@@ -30408,7 +31829,7 @@
         <v>1.5018260000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>2.91</v>
       </c>
@@ -30422,7 +31843,7 @@
         <v>1.517452</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>2.94</v>
       </c>
@@ -30436,7 +31857,7 @@
         <v>1.5323020000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>2.97</v>
       </c>
@@ -30450,7 +31871,7 @@
         <v>1.5450440000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>2.9849999999999999</v>
       </c>
@@ -30464,7 +31885,7 @@
         <v>1.55253</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>2.9925000000000002</v>
       </c>
@@ -30478,7 +31899,7 @@
         <v>1.5559320000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>2.9954999999999998</v>
       </c>
@@ -30492,7 +31913,7 @@
         <v>1.5568219999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>2.9977</v>
       </c>
@@ -30506,7 +31927,7 @@
         <v>1.555642</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>3</v>
       </c>

--- a/CFRP2本_lap=30/thickness_l30_g2.0.xlsx
+++ b/CFRP2本_lap=30/thickness_l30_g2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/CFRP2本_lap=30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1692B-5659-0B4E-A3A3-DD9CC8DDA106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB91C6CD-8450-1140-A54B-9816823D4A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="1820" windowWidth="21560" windowHeight="14740" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6380" yWindow="1820" windowWidth="21560" windowHeight="14740" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="まとめ" sheetId="10" r:id="rId11"/>
     <sheet name="solid186" sheetId="12" r:id="rId12"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId13"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -11879,10 +11882,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>17.385000000000002</c:v>
+                  <c:v>11.6957</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.69914</c:v>
+                  <c:v>11.78908</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.481</c:v>
@@ -11891,13 +11894,13 @@
                   <c:v>12.815020000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.90376</c:v>
+                  <c:v>13.578519999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.470300000000002</c:v>
+                  <c:v>14.15692</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.908919999999998</c:v>
+                  <c:v>14.464919999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16.128979999999999</c:v>
@@ -12233,11 +12236,98 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>solid186!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>young's_modulus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>solid186!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>solid186!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2436.3202666666671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2504.2175999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2738.508072727273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3108.4232000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3578.3431999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4103.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4634.2175999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5424.3530666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-40AC-1D49-9E87-09103B80A99A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]まとめ!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12272,32 +12362,20 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>solid186!$B$2:$B$9</c:f>
+              <c:f>[1]まとめ!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -12305,33 +12383,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>solid186!$D$2:$D$9</c:f>
+              <c:f>[1]まとめ!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2187.6433333333339</c:v>
+                  <c:v>2433.735466666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2507.8285575757568</c:v>
+                  <c:v>2688.4297333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2738.508072727273</c:v>
+                  <c:v>3470.869733333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3108.4232000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3566.7729333333332</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4083.25115151515</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4624.2594666666664</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5424.3530666666666</c:v>
+                  <c:v>7912.2290666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12339,7 +12405,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A3FA-6048-BEA1-55B5980F9980}"/>
+              <c16:uniqueId val="{00000002-40AC-1D49-9E87-09103B80A99A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12351,11 +12417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1439249152"/>
-        <c:axId val="1176177648"/>
+        <c:axId val="1282761984"/>
+        <c:axId val="1210978496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1439249152"/>
+        <c:axId val="1282761984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12412,12 +12478,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1176177648"/>
+        <c:crossAx val="1210978496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1176177648"/>
+        <c:axId val="1210978496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12474,44 +12540,16 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1439249152"/>
+        <c:crossAx val="1282761984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -13316,6 +13354,470 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]まとめ!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tensile_strength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]まとめ!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]まとめ!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12.868880000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.965599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.8962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C945-2342-8C58-6B8D4D5D85A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solid186!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tensile_strength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>solid186!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>solid186!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.6957</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.78908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.815020000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.578519999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.15692</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.464919999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.128979999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C945-2342-8C58-6B8D4D5D85A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>まとめ!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tensile_strength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>まとめ!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>まとめ!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.69914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.596800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.29814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.216080000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.470300000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.908919999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.895520000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C945-2342-8C58-6B8D4D5D85A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1098321568"/>
+        <c:axId val="1318456064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1098321568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318456064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1318456064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098321568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -16405,46 +16907,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -18032,522 +18494,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -18765,6 +18711,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F2F0E9-66D7-0348-9197-4F521BBDA2B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19549,6 +19533,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="C1_len120_th0.1"/>
+      <sheetName val="C1_len120_th0.5"/>
+      <sheetName val="C1_len120_th1.0"/>
+      <sheetName val="C1_len120_th2.0"/>
+      <sheetName val="まとめ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>tensile_strength</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>young's_modulus</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>0.1</v>
+          </cell>
+          <cell r="C2">
+            <v>12.868880000000001</v>
+          </cell>
+          <cell r="D2">
+            <v>2433.735466666667</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.5</v>
+          </cell>
+          <cell r="C3">
+            <v>20.965599999999998</v>
+          </cell>
+          <cell r="D3">
+            <v>2688.4297333333329</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4">
+            <v>30.8962</v>
+          </cell>
+          <cell r="D4">
+            <v>3470.869733333333</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>2</v>
+          </cell>
+          <cell r="D5">
+            <v>7912.2290666666668</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -20057,7 +20114,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -20084,11 +20141,11 @@
       <c r="B2">
         <v>0.1</v>
       </c>
-      <c r="C2">
-        <v>17.385000000000002</v>
-      </c>
-      <c r="D2">
-        <v>2187.6433333333339</v>
+      <c r="C2" s="4">
+        <v>11.6957</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2436.3202666666671</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -20098,11 +20155,11 @@
       <c r="B3">
         <v>0.25</v>
       </c>
-      <c r="C3">
-        <v>17.69914</v>
-      </c>
-      <c r="D3">
-        <v>2507.8285575757568</v>
+      <c r="C3" s="4">
+        <v>11.78908</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2504.2175999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -20140,11 +20197,11 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>14.90376</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3566.7729333333332</v>
+      <c r="C6" s="4">
+        <v>13.578519999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3578.3431999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -20154,11 +20211,11 @@
       <c r="B7">
         <v>1.25</v>
       </c>
-      <c r="C7">
-        <v>18.470300000000002</v>
-      </c>
-      <c r="D7">
-        <v>4083.25115151515</v>
+      <c r="C7" s="4">
+        <v>14.15692</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4103.84</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -20168,11 +20225,11 @@
       <c r="B8">
         <v>1.5</v>
       </c>
-      <c r="C8">
-        <v>19.908919999999998</v>
-      </c>
-      <c r="D8">
-        <v>4624.2594666666664</v>
+      <c r="C8" s="4">
+        <v>14.464919999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4634.2175999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4">

--- a/CFRP2本_lap=30/thickness_l30_g2.0.xlsx
+++ b/CFRP2本_lap=30/thickness_l30_g2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/CFRP2本_lap=30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB91C6CD-8450-1140-A54B-9816823D4A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46DC07E-5FFC-A345-8C37-88A9AEC2C432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="1820" windowWidth="21560" windowHeight="14740" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6880" yWindow="3160" windowWidth="21560" windowHeight="14740" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11888,7 +11888,7 @@
                   <c:v>11.78908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.481</c:v>
+                  <c:v>12.10286</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12.815020000000001</c:v>
@@ -12295,7 +12295,7 @@
                   <c:v>2504.2175999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2738.508072727273</c:v>
+                  <c:v>2739.4807999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3108.4232000000002</c:v>
@@ -13529,7 +13529,7 @@
                   <c:v>11.78908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.481</c:v>
+                  <c:v>12.10286</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12.815020000000001</c:v>
@@ -20114,7 +20114,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -20169,11 +20169,11 @@
       <c r="B4">
         <v>0.5</v>
       </c>
-      <c r="C4" s="3">
-        <v>13.481</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2738.508072727273</v>
+      <c r="C4" s="4">
+        <v>12.10286</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2739.4807999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4">
